--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:24:06+00:00</t>
+    <t>2025-07-30T08:12:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:12:57+00:00</t>
+    <t>2025-07-30T08:37:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:37:32+00:00</t>
+    <t>2025-07-30T16:41:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:41:01+00:00</t>
+    <t>2025-07-30T16:51:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:51:38+00:00</t>
+    <t>2025-07-30T16:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:53:20+00:00</t>
+    <t>2025-07-30T16:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:54:54+00:00</t>
+    <t>2025-07-31T08:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T08:12:23+00:00</t>
+    <t>2025-07-31T08:39:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T12:36:00+00:00</t>
+    <t>2025-07-31T13:22:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2038,7 +2038,7 @@
     <t>Ordre d’enregistrement de la naissance dans le registre d’état civil de la commune de naissance pour le mois de la naissance. Il compose les 3 derniers chiffres du NIR de l'usager avant la clé de sécurité et permet de distinguer les personnes nées au même lieu et à la même période. Il est obligatoire si le NIR n'est pas transmis.</t>
   </si>
   <si>
-    <t>ordreNaissance</t>
+    <t>ordreNaissanceEtatCivil</t>
   </si>
   <si>
     <t>Patient.birthDate.value</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:22:53+00:00</t>
+    <t>2025-07-31T14:57:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:57:51+00:00</t>
+    <t>2025-07-31T15:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T15:04:06+00:00</t>
+    <t>2025-07-31T17:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T17:00:40+00:00</t>
+    <t>2025-07-31T17:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T17:28:56+00:00</t>
+    <t>2025-08-01T05:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T05:49:55+00:00</t>
+    <t>2025-08-01T06:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2904,17 +2904,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2923,28 +2923,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:09:21+00:00</t>
+    <t>2025-08-01T06:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2904,17 +2904,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2923,28 +2923,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:28:22+00:00</t>
+    <t>2025-08-01T06:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:41:28+00:00</t>
+    <t>2025-08-01T06:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2904,17 +2904,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2923,28 +2923,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="823">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:49:21+00:00</t>
+    <t>2025-09-10T13:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1575,6 +1575,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1585,6 +1588,10 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2904,17 +2911,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2923,28 +2930,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13952,7 +13959,7 @@
         <v>392</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>393</v>
+        <v>494</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -14005,7 +14012,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>397</v>
@@ -14127,7 +14134,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>408</v>
@@ -14247,7 +14254,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>417</v>
@@ -14365,7 +14372,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>424</v>
@@ -14391,7 +14398,7 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>426</v>
@@ -14485,10 +14492,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14511,70 +14518,70 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14592,13 +14599,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14609,10 +14616,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14635,19 +14642,19 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14684,7 +14691,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14694,7 +14701,7 @@
         <v>118</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14712,16 +14719,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14729,13 +14736,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14757,19 +14764,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14818,7 +14825,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14836,16 +14843,16 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>82</v>
@@ -14853,10 +14860,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14971,10 +14978,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15091,10 +15098,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15120,16 +15127,16 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15157,10 +15164,10 @@
         <v>261</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -15178,7 +15185,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15205,7 +15212,7 @@
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15213,10 +15220,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15242,13 +15249,13 @@
         <v>105</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>282</v>
@@ -15300,7 +15307,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15327,7 +15334,7 @@
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15335,14 +15342,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15364,13 +15371,13 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15420,7 +15427,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15435,10 +15442,10 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
@@ -15447,7 +15454,7 @@
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15455,14 +15462,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15484,13 +15491,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15540,7 +15547,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15555,10 +15562,10 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
@@ -15567,7 +15574,7 @@
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15575,10 +15582,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15604,10 +15611,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15658,7 +15665,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15676,7 +15683,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15685,7 +15692,7 @@
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15693,10 +15700,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15722,10 +15729,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15776,7 +15783,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15794,7 +15801,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
@@ -15803,7 +15810,7 @@
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15811,10 +15818,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15840,14 +15847,14 @@
         <v>341</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15896,7 +15903,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15923,7 +15930,7 @@
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>82</v>
@@ -15931,13 +15938,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
@@ -15959,19 +15966,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16020,7 +16027,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16038,16 +16045,16 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16055,10 +16062,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16173,10 +16180,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16293,13 +16300,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>82</v>
@@ -16321,13 +16328,13 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16393,7 +16400,7 @@
         <v>120</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -16413,10 +16420,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16442,16 +16449,16 @@
         <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16479,10 +16486,10 @@
         <v>261</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16500,7 +16507,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16527,7 +16534,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16535,10 +16542,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16564,13 +16571,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>282</v>
@@ -16622,7 +16629,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16649,7 +16656,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16657,14 +16664,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16686,13 +16693,13 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16742,7 +16749,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16757,10 +16764,10 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16769,7 +16776,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16777,14 +16784,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16806,13 +16813,13 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16862,7 +16869,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16877,10 +16884,10 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16889,7 +16896,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16897,10 +16904,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16926,10 +16933,10 @@
         <v>105</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16980,7 +16987,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16995,10 +17002,10 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17007,7 +17014,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17015,10 +17022,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17044,10 +17051,10 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17098,7 +17105,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17116,7 +17123,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17125,7 +17132,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17133,10 +17140,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17162,14 +17169,14 @@
         <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17218,7 +17225,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17245,7 +17252,7 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17253,10 +17260,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17279,19 +17286,19 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17340,7 +17347,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17352,13 +17359,13 @@
         <v>204</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>82</v>
@@ -17367,7 +17374,7 @@
         <v>82</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>82</v>
@@ -17375,10 +17382,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17404,16 +17411,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17442,7 +17449,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17460,7 +17467,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17475,19 +17482,19 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17495,10 +17502,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17521,19 +17528,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17582,7 +17589,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17597,30 +17604,30 @@
         <v>103</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17646,10 +17653,10 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17735,10 +17742,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17851,13 +17858,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17879,13 +17886,13 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17951,7 +17958,7 @@
         <v>120</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17971,10 +17978,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17997,13 +18004,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18054,7 +18061,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18089,10 +18096,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18115,19 +18122,19 @@
         <v>92</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18176,7 +18183,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18194,7 +18201,7 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>109</v>
@@ -18203,7 +18210,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18211,10 +18218,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18249,7 +18256,7 @@
         <v>240</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18298,7 +18305,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18333,10 +18340,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18362,14 +18369,14 @@
         <v>386</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18398,7 +18405,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18416,7 +18423,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18434,16 +18441,16 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18451,10 +18458,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18477,19 +18484,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18538,7 +18545,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18556,7 +18563,7 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>109</v>
@@ -18565,7 +18572,7 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>82</v>
@@ -18573,10 +18580,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18599,19 +18606,19 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18660,7 +18667,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18678,7 +18685,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>109</v>
@@ -18687,7 +18694,7 @@
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18695,10 +18702,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18721,19 +18728,19 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18782,7 +18789,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18794,13 +18801,13 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>109</v>
@@ -18817,10 +18824,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18935,10 +18942,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19051,13 +19058,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19079,13 +19086,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19171,13 +19178,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19199,13 +19206,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19291,14 +19298,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19320,10 +19327,10 @@
         <v>112</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>115</v>
@@ -19378,7 +19385,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19413,10 +19420,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19442,14 +19449,14 @@
         <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19477,16 +19484,16 @@
         <v>153</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
@@ -19496,7 +19503,7 @@
         <v>118</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19514,7 +19521,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19523,7 +19530,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19531,13 +19538,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19562,14 +19569,14 @@
         <v>386</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19598,7 +19605,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19616,7 +19623,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19634,7 +19641,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19643,7 +19650,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19651,13 +19658,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>82</v>
@@ -19682,14 +19689,14 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19718,7 +19725,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19736,7 +19743,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19754,7 +19761,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19763,7 +19770,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19771,10 +19778,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19797,19 +19804,19 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19858,7 +19865,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19876,7 +19883,7 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -19885,7 +19892,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -19893,10 +19900,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19919,19 +19926,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19980,7 +19987,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19992,13 +19999,13 @@
         <v>204</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20007,7 +20014,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20015,10 +20022,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20041,17 +20048,17 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20100,7 +20107,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20118,7 +20125,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>109</v>
@@ -20127,7 +20134,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20135,10 +20142,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20164,14 +20171,14 @@
         <v>171</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20199,10 +20206,10 @@
         <v>261</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20220,7 +20227,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20238,7 +20245,7 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>109</v>
@@ -20247,7 +20254,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20255,10 +20262,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20284,14 +20291,14 @@
         <v>425</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20340,7 +20347,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20349,7 +20356,7 @@
         <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
@@ -20358,7 +20365,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>109</v>
@@ -20367,7 +20374,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20375,10 +20382,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20404,10 +20411,10 @@
         <v>341</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20458,7 +20465,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20476,7 +20483,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20493,10 +20500,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20519,19 +20526,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20580,7 +20587,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20598,10 +20605,10 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20615,10 +20622,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20733,10 +20740,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20853,14 +20860,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20882,10 +20889,10 @@
         <v>112</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>115</v>
@@ -20940,7 +20947,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20975,10 +20982,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21004,16 +21011,16 @@
         <v>386</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21062,7 +21069,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>91</v>
@@ -21080,16 +21087,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21097,10 +21104,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21123,19 +21130,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21184,7 +21191,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21202,16 +21209,16 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21219,14 +21226,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21245,16 +21252,16 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21304,7 +21311,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21322,7 +21329,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21331,7 +21338,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21339,10 +21346,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21365,19 +21372,19 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21426,7 +21433,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21444,10 +21451,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -21461,10 +21468,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21487,19 +21494,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21548,7 +21555,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21566,7 +21573,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>109</v>
@@ -21583,10 +21590,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21701,10 +21708,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21821,14 +21828,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21850,10 +21857,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21908,7 +21915,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21943,10 +21950,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21969,16 +21976,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22028,7 +22035,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22055,7 +22062,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22063,10 +22070,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22092,10 +22099,10 @@
         <v>171</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22125,28 +22132,28 @@
         <v>261</v>
       </c>
       <c r="Y160" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF160" t="s" s="2">
         <v>818</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>91</v>
@@ -22164,7 +22171,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T13:27:38+00:00</t>
+    <t>2025-09-15T14:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:58:18+00:00</t>
+    <t>2025-09-16T12:38:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T12:38:50+00:00</t>
+    <t>2025-09-17T15:36:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:36:32+00:00</t>
+    <t>2025-09-17T15:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:51:47+00:00</t>
+    <t>2025-09-19T12:04:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-19T12:04:16+00:00</t>
+    <t>2025-09-24T12:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="821">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:27:45+00:00</t>
+    <t>2025-09-24T14:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1575,9 +1575,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1588,10 +1585,6 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2911,17 +2904,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2930,28 +2923,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13959,7 +13952,7 @@
         <v>392</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>494</v>
+        <v>393</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -14012,7 +14005,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>397</v>
@@ -14134,7 +14127,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>408</v>
@@ -14254,7 +14247,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>417</v>
@@ -14372,7 +14365,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>424</v>
@@ -14398,7 +14391,7 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>426</v>
@@ -14492,10 +14485,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14518,26 +14511,26 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="O97" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="R97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14581,7 +14574,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14599,13 +14592,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14616,10 +14609,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14642,19 +14635,19 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14691,7 +14684,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14701,7 +14694,7 @@
         <v>118</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14719,16 +14712,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14736,13 +14729,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14764,19 +14757,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14825,7 +14818,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14843,16 +14836,16 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO99" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>82</v>
@@ -14860,10 +14853,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14978,10 +14971,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15098,10 +15091,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15127,16 +15120,16 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15164,28 +15157,28 @@
         <v>261</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF102" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15212,7 +15205,7 @@
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15220,10 +15213,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15249,13 +15242,13 @@
         <v>105</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>282</v>
@@ -15307,7 +15300,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15334,7 +15327,7 @@
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15342,14 +15335,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15371,13 +15364,13 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15427,7 +15420,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15442,19 +15435,19 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15462,14 +15455,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15491,13 +15484,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N105" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15547,7 +15540,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15562,19 +15555,19 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO105" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15582,10 +15575,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15611,10 +15604,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15665,7 +15658,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15683,7 +15676,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15692,7 +15685,7 @@
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15700,10 +15693,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15729,10 +15722,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15783,7 +15776,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15801,7 +15794,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
@@ -15810,7 +15803,7 @@
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15818,10 +15811,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15847,14 +15840,14 @@
         <v>341</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15903,7 +15896,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15930,7 +15923,7 @@
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>82</v>
@@ -15938,13 +15931,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
@@ -15966,19 +15959,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16027,7 +16020,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16045,16 +16038,16 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO109" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16062,10 +16055,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16180,10 +16173,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16300,13 +16293,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>82</v>
@@ -16328,13 +16321,13 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16400,7 +16393,7 @@
         <v>120</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -16420,10 +16413,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16449,16 +16442,16 @@
         <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16486,28 +16479,28 @@
         <v>261</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF113" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16534,7 +16527,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16542,10 +16535,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16571,13 +16564,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>282</v>
@@ -16629,7 +16622,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16656,7 +16649,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16664,14 +16657,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16693,13 +16686,13 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16749,7 +16742,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16764,10 +16757,10 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16776,7 +16769,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16784,14 +16777,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16813,13 +16806,13 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N116" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16869,7 +16862,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16884,10 +16877,10 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16896,7 +16889,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16904,10 +16897,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16933,10 +16926,10 @@
         <v>105</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16987,7 +16980,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17002,10 +16995,10 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17014,7 +17007,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17022,10 +17015,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17051,10 +17044,10 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17105,7 +17098,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17123,7 +17116,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17132,7 +17125,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17140,10 +17133,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17169,14 +17162,14 @@
         <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17225,7 +17218,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17252,7 +17245,7 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17260,10 +17253,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17286,19 +17279,19 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17347,7 +17340,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17359,22 +17352,22 @@
         <v>204</v>
       </c>
       <c r="AJ120" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO120" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>82</v>
@@ -17382,10 +17375,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17411,16 +17404,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17449,7 +17442,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17467,7 +17460,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17482,19 +17475,19 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="AL121" t="s" s="2">
+      <c r="AN121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO121" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17502,10 +17495,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17528,19 +17521,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17589,7 +17582,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17604,30 +17597,30 @@
         <v>103</v>
       </c>
       <c r="AK122" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="AL122" t="s" s="2">
+      <c r="AN122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO122" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="AM122" t="s" s="2">
+      <c r="AP122" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AP122" t="s" s="2">
-        <v>636</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17653,10 +17646,10 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17742,10 +17735,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17858,13 +17851,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B125" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="C125" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="C125" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17886,13 +17879,13 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17958,7 +17951,7 @@
         <v>120</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17978,10 +17971,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18004,13 +17997,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18061,7 +18054,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18096,10 +18089,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18122,19 +18115,19 @@
         <v>92</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="O127" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18183,7 +18176,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18201,7 +18194,7 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>109</v>
@@ -18210,7 +18203,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18218,10 +18211,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18256,7 +18249,7 @@
         <v>240</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18305,7 +18298,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18340,10 +18333,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18369,14 +18362,14 @@
         <v>386</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18405,7 +18398,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18423,7 +18416,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18441,16 +18434,16 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO129" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18458,10 +18451,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18484,19 +18477,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18545,7 +18538,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18563,7 +18556,7 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>109</v>
@@ -18572,7 +18565,7 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>82</v>
@@ -18580,10 +18573,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18606,19 +18599,19 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="O131" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18667,7 +18660,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18685,7 +18678,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>109</v>
@@ -18694,7 +18687,7 @@
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18702,10 +18695,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18728,19 +18721,19 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="O132" t="s" s="2">
         <v>688</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18789,7 +18782,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18801,13 +18794,13 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>109</v>
@@ -18824,10 +18817,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18942,10 +18935,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19058,13 +19051,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B135" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="C135" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19086,13 +19079,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19178,13 +19171,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19206,13 +19199,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19298,14 +19291,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19327,10 +19320,10 @@
         <v>112</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>115</v>
@@ -19385,7 +19378,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19420,10 +19413,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19449,14 +19442,14 @@
         <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19484,16 +19477,16 @@
         <v>153</v>
       </c>
       <c r="Y138" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB138" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
@@ -19503,7 +19496,7 @@
         <v>118</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19521,7 +19514,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19530,7 +19523,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19538,13 +19531,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19569,14 +19562,14 @@
         <v>386</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19605,7 +19598,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19623,7 +19616,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19641,7 +19634,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19650,7 +19643,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19658,13 +19651,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>82</v>
@@ -19689,14 +19682,14 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19725,7 +19718,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19743,7 +19736,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19761,7 +19754,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19770,7 +19763,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19778,10 +19771,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19804,19 +19797,19 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>728</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19865,7 +19858,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19883,7 +19876,7 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -19892,7 +19885,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -19900,10 +19893,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19926,19 +19919,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L142" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="O142" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19987,7 +19980,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19999,22 +19992,22 @@
         <v>204</v>
       </c>
       <c r="AJ142" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO142" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO142" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20022,10 +20015,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20048,17 +20041,17 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>739</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>740</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20107,7 +20100,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20125,7 +20118,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>109</v>
@@ -20134,7 +20127,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20142,10 +20135,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20171,14 +20164,14 @@
         <v>171</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20206,10 +20199,10 @@
         <v>261</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20227,7 +20220,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20245,7 +20238,7 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>109</v>
@@ -20254,7 +20247,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20262,10 +20255,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20291,14 +20284,14 @@
         <v>425</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20347,7 +20340,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20356,7 +20349,7 @@
         <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
@@ -20365,7 +20358,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>109</v>
@@ -20374,7 +20367,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20382,10 +20375,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20411,10 +20404,10 @@
         <v>341</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20465,7 +20458,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20483,7 +20476,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20500,10 +20493,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20526,19 +20519,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>763</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="O147" t="s" s="2">
         <v>764</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>766</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20587,7 +20580,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20605,10 +20598,10 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20622,10 +20615,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20740,10 +20733,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20860,14 +20853,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20889,10 +20882,10 @@
         <v>112</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>115</v>
@@ -20947,7 +20940,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20982,10 +20975,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21011,16 +21004,16 @@
         <v>386</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>773</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="O151" t="s" s="2">
         <v>774</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>776</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21069,7 +21062,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>91</v>
@@ -21087,16 +21080,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO151" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="AN151" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO151" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21104,10 +21097,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21130,19 +21123,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="O152" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21191,7 +21184,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21209,16 +21202,16 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="AN152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO152" t="s" s="2">
         <v>785</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO152" t="s" s="2">
-        <v>787</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21226,14 +21219,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21252,16 +21245,16 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>790</v>
       </c>
-      <c r="L153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>791</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>793</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21311,7 +21304,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21329,7 +21322,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21338,7 +21331,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21346,10 +21339,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21372,19 +21365,19 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>797</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>799</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>801</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21433,7 +21426,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21451,10 +21444,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -21468,10 +21461,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21494,19 +21487,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>805</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>807</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21555,7 +21548,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21573,7 +21566,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>109</v>
@@ -21590,10 +21583,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21708,10 +21701,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21828,14 +21821,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21857,10 +21850,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21915,7 +21908,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21950,10 +21943,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21976,16 +21969,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>813</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>814</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22035,7 +22028,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22062,7 +22055,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22070,10 +22063,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22099,10 +22092,10 @@
         <v>171</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22132,10 +22125,10 @@
         <v>261</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -22153,7 +22146,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>91</v>
@@ -22171,7 +22164,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="823">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T14:43:36+00:00</t>
+    <t>2025-10-16T12:41:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1575,6 +1575,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1585,6 +1588,10 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2904,17 +2911,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2923,28 +2930,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13952,7 +13959,7 @@
         <v>392</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>393</v>
+        <v>494</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -14005,7 +14012,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>397</v>
@@ -14127,7 +14134,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>408</v>
@@ -14247,7 +14254,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>417</v>
@@ -14365,7 +14372,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>424</v>
@@ -14391,7 +14398,7 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>426</v>
@@ -14485,10 +14492,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14511,70 +14518,70 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14592,13 +14599,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14609,10 +14616,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14635,19 +14642,19 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14684,7 +14691,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14694,7 +14701,7 @@
         <v>118</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14712,16 +14719,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14729,13 +14736,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14757,19 +14764,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14818,7 +14825,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14836,16 +14843,16 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>82</v>
@@ -14853,10 +14860,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14971,10 +14978,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15091,10 +15098,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15120,16 +15127,16 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15157,10 +15164,10 @@
         <v>261</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -15178,7 +15185,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15205,7 +15212,7 @@
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15213,10 +15220,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15242,13 +15249,13 @@
         <v>105</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>282</v>
@@ -15300,7 +15307,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15327,7 +15334,7 @@
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15335,14 +15342,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15364,13 +15371,13 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15420,7 +15427,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15435,10 +15442,10 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
@@ -15447,7 +15454,7 @@
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15455,14 +15462,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15484,13 +15491,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15540,7 +15547,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15555,10 +15562,10 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
@@ -15567,7 +15574,7 @@
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15575,10 +15582,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15604,10 +15611,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15658,7 +15665,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15676,7 +15683,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15685,7 +15692,7 @@
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15693,10 +15700,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15722,10 +15729,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15776,7 +15783,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15794,7 +15801,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
@@ -15803,7 +15810,7 @@
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15811,10 +15818,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15840,14 +15847,14 @@
         <v>341</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15896,7 +15903,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15923,7 +15930,7 @@
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>82</v>
@@ -15931,13 +15938,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
@@ -15959,19 +15966,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16020,7 +16027,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16038,16 +16045,16 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16055,10 +16062,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16173,10 +16180,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16293,13 +16300,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>82</v>
@@ -16321,13 +16328,13 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16393,7 +16400,7 @@
         <v>120</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -16413,10 +16420,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16442,16 +16449,16 @@
         <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16479,10 +16486,10 @@
         <v>261</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16500,7 +16507,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16527,7 +16534,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16535,10 +16542,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16564,13 +16571,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>282</v>
@@ -16622,7 +16629,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16649,7 +16656,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16657,14 +16664,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16686,13 +16693,13 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16742,7 +16749,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16757,10 +16764,10 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16769,7 +16776,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16777,14 +16784,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16806,13 +16813,13 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16862,7 +16869,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16877,10 +16884,10 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16889,7 +16896,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16897,10 +16904,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16926,10 +16933,10 @@
         <v>105</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16980,7 +16987,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16995,10 +17002,10 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17007,7 +17014,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17015,10 +17022,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17044,10 +17051,10 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17098,7 +17105,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17116,7 +17123,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17125,7 +17132,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17133,10 +17140,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17162,14 +17169,14 @@
         <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17218,7 +17225,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17245,7 +17252,7 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17253,10 +17260,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17279,19 +17286,19 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17340,7 +17347,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17352,13 +17359,13 @@
         <v>204</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>82</v>
@@ -17367,7 +17374,7 @@
         <v>82</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>82</v>
@@ -17375,10 +17382,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17404,16 +17411,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17442,7 +17449,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17460,7 +17467,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17475,19 +17482,19 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17495,10 +17502,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17521,19 +17528,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17582,7 +17589,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17597,30 +17604,30 @@
         <v>103</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17646,10 +17653,10 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17735,10 +17742,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17851,13 +17858,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17879,13 +17886,13 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17951,7 +17958,7 @@
         <v>120</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17971,10 +17978,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17997,13 +18004,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18054,7 +18061,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18089,10 +18096,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18115,19 +18122,19 @@
         <v>92</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18176,7 +18183,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18194,7 +18201,7 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>109</v>
@@ -18203,7 +18210,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18211,10 +18218,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18249,7 +18256,7 @@
         <v>240</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18298,7 +18305,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18333,10 +18340,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18362,14 +18369,14 @@
         <v>386</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18398,7 +18405,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18416,7 +18423,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18434,16 +18441,16 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18451,10 +18458,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18477,19 +18484,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18538,7 +18545,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18556,7 +18563,7 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>109</v>
@@ -18565,7 +18572,7 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>82</v>
@@ -18573,10 +18580,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18599,19 +18606,19 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18660,7 +18667,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18678,7 +18685,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>109</v>
@@ -18687,7 +18694,7 @@
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18695,10 +18702,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18721,19 +18728,19 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18782,7 +18789,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18794,13 +18801,13 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>109</v>
@@ -18817,10 +18824,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18935,10 +18942,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19051,13 +19058,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19079,13 +19086,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19171,13 +19178,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19199,13 +19206,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19291,14 +19298,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19320,10 +19327,10 @@
         <v>112</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>115</v>
@@ -19378,7 +19385,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19413,10 +19420,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19442,14 +19449,14 @@
         <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19477,16 +19484,16 @@
         <v>153</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
@@ -19496,7 +19503,7 @@
         <v>118</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19514,7 +19521,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19523,7 +19530,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19531,13 +19538,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19562,14 +19569,14 @@
         <v>386</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19598,7 +19605,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19616,7 +19623,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19634,7 +19641,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19643,7 +19650,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19651,13 +19658,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>82</v>
@@ -19682,14 +19689,14 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19718,7 +19725,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19736,7 +19743,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19754,7 +19761,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19763,7 +19770,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19771,10 +19778,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19797,19 +19804,19 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19858,7 +19865,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19876,7 +19883,7 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -19885,7 +19892,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -19893,10 +19900,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19919,19 +19926,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19980,7 +19987,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19992,13 +19999,13 @@
         <v>204</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20007,7 +20014,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20015,10 +20022,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20041,17 +20048,17 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20100,7 +20107,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20118,7 +20125,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>109</v>
@@ -20127,7 +20134,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20135,10 +20142,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20164,14 +20171,14 @@
         <v>171</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20199,10 +20206,10 @@
         <v>261</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20220,7 +20227,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20238,7 +20245,7 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>109</v>
@@ -20247,7 +20254,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20255,10 +20262,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20284,14 +20291,14 @@
         <v>425</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20340,7 +20347,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20349,7 +20356,7 @@
         <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
@@ -20358,7 +20365,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>109</v>
@@ -20367,7 +20374,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20375,10 +20382,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20404,10 +20411,10 @@
         <v>341</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20458,7 +20465,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20476,7 +20483,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20493,10 +20500,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20519,19 +20526,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20580,7 +20587,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20598,10 +20605,10 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20615,10 +20622,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20733,10 +20740,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20853,14 +20860,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20882,10 +20889,10 @@
         <v>112</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>115</v>
@@ -20940,7 +20947,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20975,10 +20982,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21004,16 +21011,16 @@
         <v>386</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21062,7 +21069,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>91</v>
@@ -21080,16 +21087,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21097,10 +21104,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21123,19 +21130,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21184,7 +21191,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21202,16 +21209,16 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21219,14 +21226,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21245,16 +21252,16 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21304,7 +21311,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21322,7 +21329,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21331,7 +21338,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21339,10 +21346,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21365,19 +21372,19 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21426,7 +21433,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21444,10 +21451,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -21461,10 +21468,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21487,19 +21494,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21548,7 +21555,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21566,7 +21573,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>109</v>
@@ -21583,10 +21590,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21701,10 +21708,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21821,14 +21828,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21850,10 +21857,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21908,7 +21915,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21943,10 +21950,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21969,16 +21976,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22028,7 +22035,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22055,7 +22062,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22063,10 +22070,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22092,10 +22099,10 @@
         <v>171</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22125,28 +22132,28 @@
         <v>261</v>
       </c>
       <c r="Y160" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF160" t="s" s="2">
         <v>818</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>91</v>
@@ -22164,7 +22171,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:41:56+00:00</t>
+    <t>2025-10-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:49:22+00:00</t>
+    <t>2025-10-20T13:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="824">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:54:58+00:00</t>
+    <t>2025-10-23T09:18:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1458,7 +1458,7 @@
     <t>PI</t>
   </si>
   <si>
-    <t>Hospital assigned patient identifier | IPP; Dans le cadre de ce volet, représente l'Identifiant local de l’usager au sein de la structure. Cet identifiant est obtenu par la concaténation du type d'identifiant national de personne (provenant de la nomenclature TRE_G08-TypeIdentifiantPersonne), de l'identifiant de la structure (numéro FINESS), de l'identifiant local de l’usager au sein de la structure (identifiantLocalUsagerESSMS) : 3+FINESS/identifiantLocalUsagerESSMS</t>
+    <t>Hospital assigned patient identifier | IPP; Dans le cadre de ce volet, représente l'Identifiant local de l’usager au sein de la structure.</t>
   </si>
   <si>
     <t>identifiantLocalUsagerESSMS</t>
@@ -1489,6 +1489,9 @@
   </si>
   <si>
     <t>Patient.identifier:PI.system</t>
+  </si>
+  <si>
+    <t>https://identifiant-medicosocial-localusager.esante.gouv.fr</t>
   </si>
   <si>
     <t>Patient.identifier:PI.value</t>
@@ -11892,7 +11895,7 @@
         <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>403</v>
@@ -11966,7 +11969,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>408</v>
@@ -12086,7 +12089,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>417</v>
@@ -12204,7 +12207,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>424</v>
@@ -12324,13 +12327,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>354</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>82</v>
@@ -12355,7 +12358,7 @@
         <v>355</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>357</v>
@@ -12446,7 +12449,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>370</v>
@@ -12564,7 +12567,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>372</v>
@@ -12684,7 +12687,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>374</v>
@@ -12806,7 +12809,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>385</v>
@@ -12854,7 +12857,7 @@
         <v>82</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>82</v>
@@ -12928,7 +12931,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>397</v>
@@ -13050,7 +13053,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>408</v>
@@ -13170,7 +13173,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>417</v>
@@ -13288,7 +13291,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>424</v>
@@ -13408,13 +13411,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>354</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>82</v>
@@ -13439,7 +13442,7 @@
         <v>355</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>357</v>
@@ -13510,7 +13513,7 @@
         <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>361</v>
@@ -13530,7 +13533,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>370</v>
@@ -13648,7 +13651,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>372</v>
@@ -13768,7 +13771,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>374</v>
@@ -13890,7 +13893,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>385</v>
@@ -13938,7 +13941,7 @@
         <v>82</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>82</v>
@@ -13959,7 +13962,7 @@
         <v>392</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -14012,7 +14015,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>397</v>
@@ -14134,7 +14137,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>408</v>
@@ -14254,7 +14257,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>417</v>
@@ -14372,7 +14375,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>424</v>
@@ -14398,7 +14401,7 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>426</v>
@@ -14492,10 +14495,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14518,70 +14521,70 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14599,13 +14602,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14616,10 +14619,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14642,19 +14645,19 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14691,7 +14694,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14701,7 +14704,7 @@
         <v>118</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14719,16 +14722,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14736,13 +14739,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14764,19 +14767,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14825,7 +14828,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14843,16 +14846,16 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>82</v>
@@ -14860,10 +14863,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14978,10 +14981,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15098,10 +15101,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15127,16 +15130,16 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15164,10 +15167,10 @@
         <v>261</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -15185,7 +15188,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15212,7 +15215,7 @@
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15220,10 +15223,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15249,13 +15252,13 @@
         <v>105</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>282</v>
@@ -15307,7 +15310,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15334,7 +15337,7 @@
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15342,14 +15345,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15371,13 +15374,13 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15427,7 +15430,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15442,10 +15445,10 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
@@ -15454,7 +15457,7 @@
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15462,14 +15465,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15491,13 +15494,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15547,7 +15550,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15562,10 +15565,10 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
@@ -15574,7 +15577,7 @@
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15582,10 +15585,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15611,10 +15614,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15665,7 +15668,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15683,7 +15686,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15692,7 +15695,7 @@
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15700,10 +15703,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15729,10 +15732,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15783,7 +15786,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15801,7 +15804,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
@@ -15810,7 +15813,7 @@
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15818,10 +15821,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15847,14 +15850,14 @@
         <v>341</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15903,7 +15906,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15930,7 +15933,7 @@
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>82</v>
@@ -15938,13 +15941,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
@@ -15966,19 +15969,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16027,7 +16030,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16045,16 +16048,16 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16062,10 +16065,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16180,10 +16183,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16300,13 +16303,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>82</v>
@@ -16328,13 +16331,13 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16400,7 +16403,7 @@
         <v>120</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -16420,10 +16423,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16449,16 +16452,16 @@
         <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16486,10 +16489,10 @@
         <v>261</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16507,7 +16510,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16534,7 +16537,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16542,10 +16545,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16571,13 +16574,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>282</v>
@@ -16629,7 +16632,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16656,7 +16659,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16664,14 +16667,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16693,13 +16696,13 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16749,7 +16752,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16764,10 +16767,10 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16776,7 +16779,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16784,14 +16787,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16813,13 +16816,13 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16869,7 +16872,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16884,10 +16887,10 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16896,7 +16899,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16904,10 +16907,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16933,10 +16936,10 @@
         <v>105</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16987,7 +16990,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17002,10 +17005,10 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17014,7 +17017,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17022,10 +17025,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17051,10 +17054,10 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17105,7 +17108,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17123,7 +17126,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17132,7 +17135,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17140,10 +17143,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17169,14 +17172,14 @@
         <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17225,7 +17228,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17252,7 +17255,7 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17260,10 +17263,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17286,19 +17289,19 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17347,7 +17350,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17359,13 +17362,13 @@
         <v>204</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>82</v>
@@ -17374,7 +17377,7 @@
         <v>82</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>82</v>
@@ -17382,10 +17385,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17411,16 +17414,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17449,7 +17452,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17467,7 +17470,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17482,19 +17485,19 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17502,10 +17505,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17528,19 +17531,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17589,7 +17592,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17604,30 +17607,30 @@
         <v>103</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17653,10 +17656,10 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17742,10 +17745,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17858,13 +17861,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B125" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="B125" t="s" s="2">
-        <v>640</v>
-      </c>
       <c r="C125" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17886,13 +17889,13 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17958,7 +17961,7 @@
         <v>120</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17978,10 +17981,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18004,13 +18007,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18061,7 +18064,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18096,10 +18099,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18122,19 +18125,19 @@
         <v>92</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18183,7 +18186,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18201,7 +18204,7 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>109</v>
@@ -18210,7 +18213,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18218,10 +18221,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18256,7 +18259,7 @@
         <v>240</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18305,7 +18308,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18340,10 +18343,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18369,14 +18372,14 @@
         <v>386</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18405,7 +18408,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18423,7 +18426,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18441,16 +18444,16 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18458,10 +18461,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18484,19 +18487,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18545,7 +18548,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18563,7 +18566,7 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>109</v>
@@ -18572,7 +18575,7 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>82</v>
@@ -18580,10 +18583,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18606,19 +18609,19 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18667,7 +18670,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18685,7 +18688,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>109</v>
@@ -18694,7 +18697,7 @@
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18702,10 +18705,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18728,19 +18731,19 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18789,7 +18792,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18801,13 +18804,13 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>109</v>
@@ -18824,10 +18827,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18942,10 +18945,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19058,13 +19061,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="B135" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="B135" t="s" s="2">
-        <v>694</v>
-      </c>
       <c r="C135" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19086,13 +19089,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19178,13 +19181,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19206,13 +19209,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19298,14 +19301,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19327,10 +19330,10 @@
         <v>112</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>115</v>
@@ -19385,7 +19388,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19420,10 +19423,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19449,14 +19452,14 @@
         <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19484,16 +19487,16 @@
         <v>153</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
@@ -19503,7 +19506,7 @@
         <v>118</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19521,7 +19524,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19530,7 +19533,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19538,13 +19541,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19569,14 +19572,14 @@
         <v>386</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19605,7 +19608,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19623,7 +19626,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19641,7 +19644,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19650,7 +19653,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19658,13 +19661,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>82</v>
@@ -19689,14 +19692,14 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19725,7 +19728,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19743,7 +19746,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19761,7 +19764,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19770,7 +19773,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19778,10 +19781,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19804,19 +19807,19 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19865,7 +19868,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19883,7 +19886,7 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -19892,7 +19895,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -19900,10 +19903,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19926,19 +19929,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19987,7 +19990,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19999,13 +20002,13 @@
         <v>204</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20014,7 +20017,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20022,10 +20025,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20048,17 +20051,17 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20107,7 +20110,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20125,7 +20128,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>109</v>
@@ -20134,7 +20137,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20142,10 +20145,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20171,14 +20174,14 @@
         <v>171</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20206,10 +20209,10 @@
         <v>261</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20227,7 +20230,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20245,7 +20248,7 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>109</v>
@@ -20254,7 +20257,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20262,10 +20265,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20291,14 +20294,14 @@
         <v>425</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20347,7 +20350,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20356,7 +20359,7 @@
         <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
@@ -20365,7 +20368,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>109</v>
@@ -20374,7 +20377,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20382,10 +20385,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20411,10 +20414,10 @@
         <v>341</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20465,7 +20468,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20483,7 +20486,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20500,10 +20503,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20526,19 +20529,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20587,7 +20590,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20605,10 +20608,10 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20622,10 +20625,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20740,10 +20743,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20860,14 +20863,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20889,10 +20892,10 @@
         <v>112</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>115</v>
@@ -20947,7 +20950,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20982,10 +20985,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21011,16 +21014,16 @@
         <v>386</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21069,7 +21072,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>91</v>
@@ -21087,16 +21090,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21104,10 +21107,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21130,19 +21133,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21191,7 +21194,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21209,16 +21212,16 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21226,14 +21229,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21252,16 +21255,16 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21311,7 +21314,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21329,7 +21332,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21338,7 +21341,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21346,10 +21349,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21372,19 +21375,19 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21433,7 +21436,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21451,10 +21454,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -21468,10 +21471,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21494,19 +21497,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21555,7 +21558,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21573,7 +21576,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>109</v>
@@ -21590,10 +21593,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21708,10 +21711,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21828,14 +21831,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21857,10 +21860,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21915,7 +21918,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21950,10 +21953,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21976,16 +21979,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22035,7 +22038,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22062,7 +22065,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22070,10 +22073,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22099,10 +22102,10 @@
         <v>171</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22132,10 +22135,10 @@
         <v>261</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -22153,7 +22156,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>91</v>
@@ -22171,7 +22174,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:18:35+00:00</t>
+    <t>2025-10-23T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:35:50+00:00</t>
+    <t>2025-10-29T16:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T16:42:45+00:00</t>
+    <t>2025-11-04T09:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="822">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T09:41:06+00:00</t>
+    <t>2025-11-04T14:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1578,9 +1578,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1591,10 +1588,6 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2914,17 +2907,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2933,28 +2926,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13962,7 +13955,7 @@
         <v>392</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>495</v>
+        <v>393</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -14015,7 +14008,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>397</v>
@@ -14137,7 +14130,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>408</v>
@@ -14257,7 +14250,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>417</v>
@@ -14375,7 +14368,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>424</v>
@@ -14401,7 +14394,7 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>426</v>
@@ -14495,10 +14488,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14521,26 +14514,26 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="O97" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="R97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14584,7 +14577,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14602,13 +14595,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14619,10 +14612,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14645,19 +14638,19 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14694,7 +14687,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14704,7 +14697,7 @@
         <v>118</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14722,16 +14715,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14739,13 +14732,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14767,19 +14760,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14828,7 +14821,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14846,16 +14839,16 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO99" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>82</v>
@@ -14863,10 +14856,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14981,10 +14974,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15101,10 +15094,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15130,16 +15123,16 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15167,28 +15160,28 @@
         <v>261</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF102" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15215,7 +15208,7 @@
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15223,10 +15216,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15252,13 +15245,13 @@
         <v>105</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>282</v>
@@ -15310,7 +15303,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15337,7 +15330,7 @@
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15345,14 +15338,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15374,13 +15367,13 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15430,7 +15423,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15445,19 +15438,19 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15465,14 +15458,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15494,13 +15487,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N105" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15550,7 +15543,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15565,19 +15558,19 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO105" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15585,10 +15578,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15614,10 +15607,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15668,7 +15661,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15686,7 +15679,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15695,7 +15688,7 @@
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15703,10 +15696,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15732,10 +15725,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15786,7 +15779,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15804,7 +15797,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
@@ -15813,7 +15806,7 @@
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15821,10 +15814,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15850,14 +15843,14 @@
         <v>341</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15906,7 +15899,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15933,7 +15926,7 @@
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>82</v>
@@ -15941,13 +15934,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
@@ -15969,19 +15962,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16030,7 +16023,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16048,16 +16041,16 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO109" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16065,10 +16058,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16183,10 +16176,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16303,13 +16296,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>82</v>
@@ -16331,13 +16324,13 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16403,7 +16396,7 @@
         <v>120</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -16423,10 +16416,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16452,16 +16445,16 @@
         <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16489,28 +16482,28 @@
         <v>261</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF113" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16537,7 +16530,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16545,10 +16538,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16574,13 +16567,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>282</v>
@@ -16632,7 +16625,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16659,7 +16652,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16667,14 +16660,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16696,13 +16689,13 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16752,7 +16745,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16767,10 +16760,10 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16779,7 +16772,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16787,14 +16780,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16816,13 +16809,13 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N116" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16872,7 +16865,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16887,10 +16880,10 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16899,7 +16892,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16907,10 +16900,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16936,10 +16929,10 @@
         <v>105</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16990,7 +16983,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17005,10 +16998,10 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17017,7 +17010,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17025,10 +17018,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17054,10 +17047,10 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17108,7 +17101,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17126,7 +17119,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17135,7 +17128,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17143,10 +17136,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17172,14 +17165,14 @@
         <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17228,7 +17221,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17255,7 +17248,7 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17263,10 +17256,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17289,19 +17282,19 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17350,7 +17343,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17362,22 +17355,22 @@
         <v>204</v>
       </c>
       <c r="AJ120" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO120" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>82</v>
@@ -17385,10 +17378,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17414,16 +17407,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17452,7 +17445,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17470,7 +17463,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17485,19 +17478,19 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="AL121" t="s" s="2">
+      <c r="AN121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO121" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17505,10 +17498,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17531,19 +17524,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17592,7 +17585,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17607,30 +17600,30 @@
         <v>103</v>
       </c>
       <c r="AK122" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="AL122" t="s" s="2">
+      <c r="AN122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO122" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="AM122" t="s" s="2">
+      <c r="AP122" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AP122" t="s" s="2">
-        <v>637</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17656,10 +17649,10 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17745,10 +17738,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17861,13 +17854,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B125" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C125" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="C125" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17889,13 +17882,13 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17961,7 +17954,7 @@
         <v>120</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17981,10 +17974,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18007,13 +18000,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18064,7 +18057,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18099,10 +18092,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18125,19 +18118,19 @@
         <v>92</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="O127" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18186,7 +18179,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18204,7 +18197,7 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>109</v>
@@ -18213,7 +18206,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18221,10 +18214,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18259,7 +18252,7 @@
         <v>240</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18308,7 +18301,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18343,10 +18336,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18372,14 +18365,14 @@
         <v>386</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18408,7 +18401,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18426,7 +18419,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18444,16 +18437,16 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO129" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18461,10 +18454,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18487,19 +18480,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18548,7 +18541,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18566,7 +18559,7 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>109</v>
@@ -18575,7 +18568,7 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>82</v>
@@ -18583,10 +18576,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18609,19 +18602,19 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="O131" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18670,7 +18663,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18688,7 +18681,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>109</v>
@@ -18697,7 +18690,7 @@
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18705,10 +18698,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18731,19 +18724,19 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="O132" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18792,7 +18785,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18804,13 +18797,13 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>109</v>
@@ -18827,10 +18820,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18945,10 +18938,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19061,13 +19054,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B135" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="C135" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19089,13 +19082,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19181,13 +19174,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19209,13 +19202,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19301,14 +19294,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19330,10 +19323,10 @@
         <v>112</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>115</v>
@@ -19388,7 +19381,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19423,10 +19416,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19452,14 +19445,14 @@
         <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19487,16 +19480,16 @@
         <v>153</v>
       </c>
       <c r="Y138" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB138" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
@@ -19506,7 +19499,7 @@
         <v>118</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19524,7 +19517,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19533,7 +19526,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19541,13 +19534,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19572,14 +19565,14 @@
         <v>386</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19608,7 +19601,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19626,7 +19619,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19644,7 +19637,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19653,7 +19646,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19661,13 +19654,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>82</v>
@@ -19692,14 +19685,14 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19728,7 +19721,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19746,7 +19739,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19764,7 +19757,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19773,7 +19766,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19781,10 +19774,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19807,19 +19800,19 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19868,7 +19861,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19886,7 +19879,7 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -19895,7 +19888,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -19903,10 +19896,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19929,19 +19922,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L142" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="O142" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19990,7 +19983,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20002,22 +19995,22 @@
         <v>204</v>
       </c>
       <c r="AJ142" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO142" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO142" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20025,10 +20018,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20051,17 +20044,17 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20110,7 +20103,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20128,7 +20121,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>109</v>
@@ -20137,7 +20130,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20145,10 +20138,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20174,14 +20167,14 @@
         <v>171</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20209,10 +20202,10 @@
         <v>261</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20230,7 +20223,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20248,7 +20241,7 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>109</v>
@@ -20257,7 +20250,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20265,10 +20258,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20294,14 +20287,14 @@
         <v>425</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20350,7 +20343,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20359,7 +20352,7 @@
         <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
@@ -20368,7 +20361,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>109</v>
@@ -20377,7 +20370,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20385,10 +20378,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20414,10 +20407,10 @@
         <v>341</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20468,7 +20461,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20486,7 +20479,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20503,10 +20496,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20529,19 +20522,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="O147" t="s" s="2">
         <v>765</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20590,7 +20583,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20608,10 +20601,10 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20625,10 +20618,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20743,10 +20736,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20863,14 +20856,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20892,10 +20885,10 @@
         <v>112</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>115</v>
@@ -20950,7 +20943,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20985,10 +20978,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21014,16 +21007,16 @@
         <v>386</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="O151" t="s" s="2">
         <v>775</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21072,7 +21065,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>91</v>
@@ -21090,16 +21083,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO151" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="AN151" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO151" t="s" s="2">
-        <v>780</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21107,10 +21100,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21133,19 +21126,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="O152" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21194,7 +21187,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21212,16 +21205,16 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AN152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO152" t="s" s="2">
         <v>786</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO152" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21229,14 +21222,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21255,16 +21248,16 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>791</v>
       </c>
-      <c r="L153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>792</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>794</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21314,7 +21307,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21332,7 +21325,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21341,7 +21334,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21349,10 +21342,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21375,19 +21368,19 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>800</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21436,7 +21429,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21454,10 +21447,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -21471,10 +21464,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21497,19 +21490,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21558,7 +21551,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21576,7 +21569,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>109</v>
@@ -21593,10 +21586,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21711,10 +21704,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21831,14 +21824,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21860,10 +21853,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21918,7 +21911,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21953,10 +21946,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21979,16 +21972,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>814</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22038,7 +22031,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22065,7 +22058,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22073,10 +22066,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22102,10 +22095,10 @@
         <v>171</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22135,10 +22128,10 @@
         <v>261</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -22156,7 +22149,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>91</v>
@@ -22174,7 +22167,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="824">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:52:21+00:00</t>
+    <t>2025-12-08T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1578,6 +1578,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1588,6 +1591,10 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2907,17 +2914,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2926,28 +2933,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13955,7 +13962,7 @@
         <v>392</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>393</v>
+        <v>495</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -14008,7 +14015,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>397</v>
@@ -14130,7 +14137,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>408</v>
@@ -14250,7 +14257,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>417</v>
@@ -14368,7 +14375,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>424</v>
@@ -14394,7 +14401,7 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>426</v>
@@ -14488,10 +14495,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14514,70 +14521,70 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14595,13 +14602,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14612,10 +14619,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14638,19 +14645,19 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14687,7 +14694,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14697,7 +14704,7 @@
         <v>118</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14715,16 +14722,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14732,13 +14739,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14760,19 +14767,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14821,7 +14828,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14839,16 +14846,16 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>82</v>
@@ -14856,10 +14863,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14974,10 +14981,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15094,10 +15101,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15123,16 +15130,16 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15160,10 +15167,10 @@
         <v>261</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -15181,7 +15188,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15208,7 +15215,7 @@
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15216,10 +15223,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15245,13 +15252,13 @@
         <v>105</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>282</v>
@@ -15303,7 +15310,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15330,7 +15337,7 @@
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15338,14 +15345,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15367,13 +15374,13 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15423,7 +15430,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15438,10 +15445,10 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
@@ -15450,7 +15457,7 @@
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15458,14 +15465,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15487,13 +15494,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15543,7 +15550,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15558,10 +15565,10 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
@@ -15570,7 +15577,7 @@
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15578,10 +15585,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15607,10 +15614,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15661,7 +15668,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15679,7 +15686,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15688,7 +15695,7 @@
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15696,10 +15703,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15725,10 +15732,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15779,7 +15786,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15797,7 +15804,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
@@ -15806,7 +15813,7 @@
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15814,10 +15821,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15843,14 +15850,14 @@
         <v>341</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15899,7 +15906,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15926,7 +15933,7 @@
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>82</v>
@@ -15934,13 +15941,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
@@ -15962,19 +15969,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16023,7 +16030,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16041,16 +16048,16 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16058,10 +16065,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16176,10 +16183,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16296,13 +16303,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>82</v>
@@ -16324,13 +16331,13 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16396,7 +16403,7 @@
         <v>120</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -16416,10 +16423,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16445,16 +16452,16 @@
         <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16482,10 +16489,10 @@
         <v>261</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16503,7 +16510,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16530,7 +16537,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16538,10 +16545,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16567,13 +16574,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>282</v>
@@ -16625,7 +16632,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16652,7 +16659,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16660,14 +16667,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16689,13 +16696,13 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16745,7 +16752,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16760,10 +16767,10 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16772,7 +16779,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16780,14 +16787,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16809,13 +16816,13 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16865,7 +16872,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16880,10 +16887,10 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16892,7 +16899,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16900,10 +16907,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16929,10 +16936,10 @@
         <v>105</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16983,7 +16990,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16998,10 +17005,10 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17010,7 +17017,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17018,10 +17025,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17047,10 +17054,10 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17101,7 +17108,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17119,7 +17126,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17128,7 +17135,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17136,10 +17143,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17165,14 +17172,14 @@
         <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17221,7 +17228,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17248,7 +17255,7 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17256,10 +17263,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17282,19 +17289,19 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17343,7 +17350,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17355,13 +17362,13 @@
         <v>204</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>82</v>
@@ -17370,7 +17377,7 @@
         <v>82</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>82</v>
@@ -17378,10 +17385,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17407,16 +17414,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17445,7 +17452,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17463,7 +17470,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17478,19 +17485,19 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17498,10 +17505,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17524,19 +17531,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17585,7 +17592,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17600,30 +17607,30 @@
         <v>103</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17649,10 +17656,10 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17738,10 +17745,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17854,13 +17861,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17882,13 +17889,13 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17954,7 +17961,7 @@
         <v>120</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17974,10 +17981,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18000,13 +18007,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18057,7 +18064,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18092,10 +18099,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18118,19 +18125,19 @@
         <v>92</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18179,7 +18186,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18197,7 +18204,7 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>109</v>
@@ -18206,7 +18213,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18214,10 +18221,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18252,7 +18259,7 @@
         <v>240</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18301,7 +18308,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18336,10 +18343,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18365,14 +18372,14 @@
         <v>386</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18401,7 +18408,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18419,7 +18426,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18437,16 +18444,16 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18454,10 +18461,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18480,19 +18487,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18541,7 +18548,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18559,7 +18566,7 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>109</v>
@@ -18568,7 +18575,7 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>82</v>
@@ -18576,10 +18583,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18602,19 +18609,19 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18663,7 +18670,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18681,7 +18688,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>109</v>
@@ -18690,7 +18697,7 @@
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18698,10 +18705,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18724,19 +18731,19 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18785,7 +18792,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18797,13 +18804,13 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>109</v>
@@ -18820,10 +18827,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18938,10 +18945,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19054,13 +19061,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19082,13 +19089,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19174,13 +19181,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19202,13 +19209,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19294,14 +19301,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19323,10 +19330,10 @@
         <v>112</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>115</v>
@@ -19381,7 +19388,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19416,10 +19423,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19445,14 +19452,14 @@
         <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19480,16 +19487,16 @@
         <v>153</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
@@ -19499,7 +19506,7 @@
         <v>118</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19517,7 +19524,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19526,7 +19533,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19534,13 +19541,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19565,14 +19572,14 @@
         <v>386</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19601,7 +19608,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19619,7 +19626,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19637,7 +19644,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19646,7 +19653,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19654,13 +19661,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>82</v>
@@ -19685,14 +19692,14 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19721,7 +19728,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19739,7 +19746,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19757,7 +19764,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19766,7 +19773,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19774,10 +19781,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19800,19 +19807,19 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19861,7 +19868,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19879,7 +19886,7 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -19888,7 +19895,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -19896,10 +19903,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19922,19 +19929,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19983,7 +19990,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19995,13 +20002,13 @@
         <v>204</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20010,7 +20017,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20018,10 +20025,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20044,17 +20051,17 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20103,7 +20110,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20121,7 +20128,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>109</v>
@@ -20130,7 +20137,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20138,10 +20145,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20167,14 +20174,14 @@
         <v>171</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20202,10 +20209,10 @@
         <v>261</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20223,7 +20230,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20241,7 +20248,7 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>109</v>
@@ -20250,7 +20257,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20258,10 +20265,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20287,14 +20294,14 @@
         <v>425</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20343,7 +20350,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20352,7 +20359,7 @@
         <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
@@ -20361,7 +20368,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>109</v>
@@ -20370,7 +20377,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20378,10 +20385,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20407,10 +20414,10 @@
         <v>341</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20461,7 +20468,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20479,7 +20486,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20496,10 +20503,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20522,19 +20529,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20583,7 +20590,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20601,10 +20608,10 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20618,10 +20625,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20736,10 +20743,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20856,14 +20863,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20885,10 +20892,10 @@
         <v>112</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>115</v>
@@ -20943,7 +20950,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20978,10 +20985,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21007,16 +21014,16 @@
         <v>386</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21065,7 +21072,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>91</v>
@@ -21083,16 +21090,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21100,10 +21107,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21126,19 +21133,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21187,7 +21194,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21205,16 +21212,16 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21222,14 +21229,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21248,16 +21255,16 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21307,7 +21314,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21325,7 +21332,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21334,7 +21341,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21342,10 +21349,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21368,19 +21375,19 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21429,7 +21436,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21447,10 +21454,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -21464,10 +21471,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21490,19 +21497,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21551,7 +21558,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21569,7 +21576,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>109</v>
@@ -21586,10 +21593,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21704,10 +21711,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21824,14 +21831,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21853,10 +21860,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21911,7 +21918,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21946,10 +21953,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21972,16 +21979,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22031,7 +22038,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22058,7 +22065,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22066,10 +22073,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22095,10 +22102,10 @@
         <v>171</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22128,28 +22135,28 @@
         <v>261</v>
       </c>
       <c r="Y160" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF160" t="s" s="2">
         <v>819</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>91</v>
@@ -22167,7 +22174,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="822">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T13:48:42+00:00</t>
+    <t>2025-12-08T14:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1578,9 +1578,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1591,10 +1588,6 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2914,17 +2907,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2933,28 +2926,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13962,7 +13955,7 @@
         <v>392</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>495</v>
+        <v>393</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -14015,7 +14008,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>397</v>
@@ -14137,7 +14130,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>408</v>
@@ -14257,7 +14250,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>417</v>
@@ -14375,7 +14368,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>424</v>
@@ -14401,7 +14394,7 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>426</v>
@@ -14495,10 +14488,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14521,26 +14514,26 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="O97" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="R97" t="s" s="2">
         <v>82</v>
       </c>
@@ -14584,7 +14577,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14602,13 +14595,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14619,10 +14612,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14645,19 +14638,19 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14694,7 +14687,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14704,7 +14697,7 @@
         <v>118</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14722,16 +14715,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14739,13 +14732,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14767,19 +14760,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14828,7 +14821,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14846,16 +14839,16 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO99" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>82</v>
@@ -14863,10 +14856,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14981,10 +14974,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15101,10 +15094,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15130,16 +15123,16 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N102" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15167,28 +15160,28 @@
         <v>261</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF102" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15215,7 +15208,7 @@
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15223,10 +15216,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15252,13 +15245,13 @@
         <v>105</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N103" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>282</v>
@@ -15310,7 +15303,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15337,7 +15330,7 @@
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15345,14 +15338,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15374,13 +15367,13 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N104" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15430,7 +15423,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15445,19 +15438,19 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO104" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15465,14 +15458,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15494,13 +15487,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N105" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15550,7 +15543,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15565,19 +15558,19 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO105" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15585,10 +15578,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15614,10 +15607,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15668,7 +15661,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15686,7 +15679,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15695,7 +15688,7 @@
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15703,10 +15696,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15732,10 +15725,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15786,7 +15779,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15804,7 +15797,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
@@ -15813,7 +15806,7 @@
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15821,10 +15814,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15850,14 +15843,14 @@
         <v>341</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15906,7 +15899,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15933,7 +15926,7 @@
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>82</v>
@@ -15941,13 +15934,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
@@ -15969,19 +15962,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16030,7 +16023,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16048,16 +16041,16 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO109" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16065,10 +16058,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16183,10 +16176,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16303,13 +16296,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>82</v>
@@ -16331,13 +16324,13 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16403,7 +16396,7 @@
         <v>120</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -16423,10 +16416,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16452,16 +16445,16 @@
         <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16489,28 +16482,28 @@
         <v>261</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF113" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16537,7 +16530,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16545,10 +16538,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16574,13 +16567,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N114" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>282</v>
@@ -16632,7 +16625,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16659,7 +16652,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16667,14 +16660,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16696,13 +16689,13 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16752,7 +16745,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16767,10 +16760,10 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16779,7 +16772,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16787,14 +16780,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16816,13 +16809,13 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="N116" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16872,7 +16865,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16887,10 +16880,10 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16899,7 +16892,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16907,10 +16900,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16936,10 +16929,10 @@
         <v>105</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16990,7 +16983,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17005,10 +16998,10 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17017,7 +17010,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17025,10 +17018,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17054,10 +17047,10 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17108,7 +17101,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17126,7 +17119,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17135,7 +17128,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17143,10 +17136,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17172,14 +17165,14 @@
         <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17228,7 +17221,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17255,7 +17248,7 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17263,10 +17256,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17289,19 +17282,19 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17350,7 +17343,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17362,22 +17355,22 @@
         <v>204</v>
       </c>
       <c r="AJ120" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO120" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>82</v>
@@ -17385,10 +17378,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17414,16 +17407,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17452,7 +17445,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17470,7 +17463,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17485,19 +17478,19 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="AL121" t="s" s="2">
+      <c r="AN121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO121" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17505,10 +17498,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17531,19 +17524,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17592,7 +17585,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17607,30 +17600,30 @@
         <v>103</v>
       </c>
       <c r="AK122" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="AL122" t="s" s="2">
+      <c r="AN122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO122" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="AM122" t="s" s="2">
+      <c r="AP122" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AP122" t="s" s="2">
-        <v>637</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17656,10 +17649,10 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17745,10 +17738,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17861,13 +17854,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B125" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C125" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="C125" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17889,13 +17882,13 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17961,7 +17954,7 @@
         <v>120</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17981,10 +17974,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18007,13 +18000,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18064,7 +18057,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18099,10 +18092,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18125,19 +18118,19 @@
         <v>92</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="O127" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18186,7 +18179,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18204,7 +18197,7 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>109</v>
@@ -18213,7 +18206,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18221,10 +18214,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18259,7 +18252,7 @@
         <v>240</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18308,7 +18301,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18343,10 +18336,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18372,14 +18365,14 @@
         <v>386</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18408,7 +18401,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18426,7 +18419,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18444,16 +18437,16 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO129" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18461,10 +18454,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18487,19 +18480,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18548,7 +18541,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18566,7 +18559,7 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>109</v>
@@ -18575,7 +18568,7 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>82</v>
@@ -18583,10 +18576,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18609,19 +18602,19 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="O131" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>683</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18670,7 +18663,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18688,7 +18681,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>109</v>
@@ -18697,7 +18690,7 @@
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18705,10 +18698,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18731,19 +18724,19 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="O132" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18792,7 +18785,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18804,13 +18797,13 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>109</v>
@@ -18827,10 +18820,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18945,10 +18938,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19061,13 +19054,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B135" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="C135" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>697</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19089,13 +19082,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19181,13 +19174,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19209,13 +19202,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19301,14 +19294,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19330,10 +19323,10 @@
         <v>112</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>115</v>
@@ -19388,7 +19381,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19423,10 +19416,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19452,14 +19445,14 @@
         <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19487,16 +19480,16 @@
         <v>153</v>
       </c>
       <c r="Y138" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB138" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
@@ -19506,7 +19499,7 @@
         <v>118</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19524,7 +19517,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19533,7 +19526,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19541,13 +19534,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19572,14 +19565,14 @@
         <v>386</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19608,7 +19601,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19626,7 +19619,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19644,7 +19637,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19653,7 +19646,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19661,13 +19654,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>82</v>
@@ -19692,14 +19685,14 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19728,7 +19721,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19746,7 +19739,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19764,7 +19757,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19773,7 +19766,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19781,10 +19774,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19807,19 +19800,19 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19868,7 +19861,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19886,7 +19879,7 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -19895,7 +19888,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -19903,10 +19896,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19929,19 +19922,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L142" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="O142" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19990,7 +19983,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20002,22 +19995,22 @@
         <v>204</v>
       </c>
       <c r="AJ142" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO142" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO142" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20025,10 +20018,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20051,17 +20044,17 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>741</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20110,7 +20103,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20128,7 +20121,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>109</v>
@@ -20137,7 +20130,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20145,10 +20138,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20174,14 +20167,14 @@
         <v>171</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20209,10 +20202,10 @@
         <v>261</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20230,7 +20223,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20248,7 +20241,7 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>109</v>
@@ -20257,7 +20250,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20265,10 +20258,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20294,14 +20287,14 @@
         <v>425</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20350,7 +20343,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20359,7 +20352,7 @@
         <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
@@ -20368,7 +20361,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>109</v>
@@ -20377,7 +20370,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20385,10 +20378,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20414,10 +20407,10 @@
         <v>341</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20468,7 +20461,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20486,7 +20479,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20503,10 +20496,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20529,19 +20522,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="O147" t="s" s="2">
         <v>765</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20590,7 +20583,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20608,10 +20601,10 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20625,10 +20618,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20743,10 +20736,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20863,14 +20856,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20892,10 +20885,10 @@
         <v>112</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>115</v>
@@ -20950,7 +20943,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20985,10 +20978,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21014,16 +21007,16 @@
         <v>386</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="O151" t="s" s="2">
         <v>775</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>776</v>
-      </c>
-      <c r="O151" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21072,7 +21065,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>91</v>
@@ -21090,16 +21083,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO151" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="AN151" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO151" t="s" s="2">
-        <v>780</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21107,10 +21100,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21133,19 +21126,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="M152" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="O152" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21194,7 +21187,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21212,16 +21205,16 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="AM152" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AN152" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO152" t="s" s="2">
         <v>786</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="AN152" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO152" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21229,14 +21222,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21255,16 +21248,16 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="L153" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>791</v>
       </c>
-      <c r="L153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>792</v>
-      </c>
-      <c r="M153" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>794</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21314,7 +21307,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21332,7 +21325,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21341,7 +21334,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21349,10 +21342,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21375,19 +21368,19 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="L154" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="L154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>800</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21436,7 +21429,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21454,10 +21447,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -21471,10 +21464,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21497,19 +21490,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>807</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21558,7 +21551,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21576,7 +21569,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>109</v>
@@ -21593,10 +21586,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21711,10 +21704,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21831,14 +21824,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21860,10 +21853,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21918,7 +21911,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21953,10 +21946,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21979,16 +21972,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>814</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22038,7 +22031,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22065,7 +22058,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22073,10 +22066,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22102,10 +22095,10 @@
         <v>171</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22135,10 +22128,10 @@
         <v>261</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>82</v>
@@ -22156,7 +22149,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>91</v>
@@ -22174,7 +22167,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="824">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:21:35+00:00</t>
+    <t>2025-12-17T08:43:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1578,6 +1578,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1588,6 +1591,10 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2907,17 +2914,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2926,28 +2933,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13955,7 +13962,7 @@
         <v>392</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>393</v>
+        <v>495</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -14008,7 +14015,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>397</v>
@@ -14130,7 +14137,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>408</v>
@@ -14250,7 +14257,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>417</v>
@@ -14368,7 +14375,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>424</v>
@@ -14394,7 +14401,7 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>426</v>
@@ -14488,10 +14495,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14514,70 +14521,70 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q97" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q97" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14595,13 +14602,13 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
@@ -14612,10 +14619,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14638,19 +14645,19 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14687,7 +14694,7 @@
         <v>82</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14697,7 +14704,7 @@
         <v>118</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14715,16 +14722,16 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>82</v>
@@ -14732,13 +14739,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>82</v>
@@ -14760,19 +14767,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14821,7 +14828,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14839,16 +14846,16 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>82</v>
@@ -14856,10 +14863,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14974,10 +14981,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15094,10 +15101,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15123,16 +15130,16 @@
         <v>171</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15160,10 +15167,10 @@
         <v>261</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -15181,7 +15188,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15208,7 +15215,7 @@
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15216,10 +15223,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15245,13 +15252,13 @@
         <v>105</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>282</v>
@@ -15303,7 +15310,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15330,7 +15337,7 @@
         <v>82</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15338,14 +15345,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -15367,13 +15374,13 @@
         <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15423,7 +15430,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15438,10 +15445,10 @@
         <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>82</v>
@@ -15450,7 +15457,7 @@
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -15458,14 +15465,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -15487,13 +15494,13 @@
         <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15543,7 +15550,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15558,10 +15565,10 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>82</v>
@@ -15570,7 +15577,7 @@
         <v>82</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15578,10 +15585,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15607,10 +15614,10 @@
         <v>105</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15661,7 +15668,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15679,7 +15686,7 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>82</v>
@@ -15688,7 +15695,7 @@
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15696,10 +15703,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15725,10 +15732,10 @@
         <v>105</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15779,7 +15786,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15797,7 +15804,7 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>82</v>
@@ -15806,7 +15813,7 @@
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15814,10 +15821,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15843,14 +15850,14 @@
         <v>341</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>82</v>
@@ -15899,7 +15906,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15926,7 +15933,7 @@
         <v>82</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>82</v>
@@ -15934,13 +15941,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>82</v>
@@ -15962,19 +15969,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16023,7 +16030,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16041,16 +16048,16 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16058,10 +16065,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16176,10 +16183,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16296,13 +16303,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>82</v>
@@ -16324,13 +16331,13 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -16396,7 +16403,7 @@
         <v>120</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>82</v>
@@ -16416,10 +16423,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16445,16 +16452,16 @@
         <v>171</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16482,10 +16489,10 @@
         <v>261</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16503,7 +16510,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16530,7 +16537,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16538,10 +16545,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16567,13 +16574,13 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>282</v>
@@ -16625,7 +16632,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16652,7 +16659,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16660,14 +16667,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -16689,13 +16696,13 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -16745,7 +16752,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16760,10 +16767,10 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16772,7 +16779,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16780,14 +16787,14 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -16809,13 +16816,13 @@
         <v>105</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -16865,7 +16872,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16880,10 +16887,10 @@
         <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -16892,7 +16899,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16900,10 +16907,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16929,10 +16936,10 @@
         <v>105</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -16983,7 +16990,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16998,10 +17005,10 @@
         <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17010,7 +17017,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17018,10 +17025,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17047,10 +17054,10 @@
         <v>105</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17101,7 +17108,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17119,7 +17126,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17128,7 +17135,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17136,10 +17143,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17165,14 +17172,14 @@
         <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17221,7 +17228,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17248,7 +17255,7 @@
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17256,10 +17263,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17282,19 +17289,19 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -17343,7 +17350,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -17355,13 +17362,13 @@
         <v>204</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>82</v>
@@ -17370,7 +17377,7 @@
         <v>82</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>82</v>
@@ -17378,10 +17385,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17407,16 +17414,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17445,7 +17452,7 @@
       </c>
       <c r="Y121" s="2"/>
       <c r="Z121" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17463,7 +17470,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17478,19 +17485,19 @@
         <v>103</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17498,10 +17505,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17524,19 +17531,19 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17585,7 +17592,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17600,30 +17607,30 @@
         <v>103</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17649,10 +17656,10 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17738,10 +17745,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17854,13 +17861,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>82</v>
@@ -17882,13 +17889,13 @@
         <v>82</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17954,7 +17961,7 @@
         <v>120</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>82</v>
@@ -17974,10 +17981,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18000,13 +18007,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18057,7 +18064,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18092,10 +18099,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18118,19 +18125,19 @@
         <v>92</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18179,7 +18186,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18197,7 +18204,7 @@
         <v>82</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>109</v>
@@ -18206,7 +18213,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18214,10 +18221,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18252,7 +18259,7 @@
         <v>240</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18301,7 +18308,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18336,10 +18343,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18365,14 +18372,14 @@
         <v>386</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18401,7 +18408,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18419,7 +18426,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18437,16 +18444,16 @@
         <v>82</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18454,10 +18461,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18480,19 +18487,19 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18541,7 +18548,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18559,7 +18566,7 @@
         <v>82</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>109</v>
@@ -18568,7 +18575,7 @@
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>82</v>
@@ -18576,10 +18583,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18602,19 +18609,19 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>82</v>
@@ -18663,7 +18670,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -18681,7 +18688,7 @@
         <v>82</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>109</v>
@@ -18690,7 +18697,7 @@
         <v>82</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>82</v>
@@ -18698,10 +18705,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18724,19 +18731,19 @@
         <v>82</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -18785,7 +18792,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -18797,13 +18804,13 @@
         <v>82</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>109</v>
@@ -18820,10 +18827,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18938,10 +18945,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19054,13 +19061,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19082,13 +19089,13 @@
         <v>82</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -19174,13 +19181,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>82</v>
@@ -19202,13 +19209,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19294,14 +19301,14 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
@@ -19323,10 +19330,10 @@
         <v>112</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N137" t="s" s="2">
         <v>115</v>
@@ -19381,7 +19388,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19416,10 +19423,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19445,14 +19452,14 @@
         <v>386</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19480,16 +19487,16 @@
         <v>153</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB138" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AC138" s="2"/>
       <c r="AD138" t="s" s="2">
@@ -19499,7 +19506,7 @@
         <v>118</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19517,7 +19524,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19526,7 +19533,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19534,13 +19541,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>82</v>
@@ -19565,14 +19572,14 @@
         <v>386</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19601,7 +19608,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -19619,7 +19626,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19637,7 +19644,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19646,7 +19653,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19654,13 +19661,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D140" t="s" s="2">
         <v>82</v>
@@ -19685,14 +19692,14 @@
         <v>386</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19721,7 +19728,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -19739,7 +19746,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19757,7 +19764,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19766,7 +19773,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19774,10 +19781,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19800,19 +19807,19 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -19861,7 +19868,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -19879,7 +19886,7 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -19888,7 +19895,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -19896,10 +19903,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19922,19 +19929,19 @@
         <v>82</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -19983,7 +19990,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -19995,13 +20002,13 @@
         <v>204</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20010,7 +20017,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20018,10 +20025,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20044,17 +20051,17 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20103,7 +20110,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20121,7 +20128,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>109</v>
@@ -20130,7 +20137,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20138,10 +20145,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20167,14 +20174,14 @@
         <v>171</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20202,10 +20209,10 @@
         <v>261</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20223,7 +20230,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20241,7 +20248,7 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>109</v>
@@ -20250,7 +20257,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20258,10 +20265,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20287,14 +20294,14 @@
         <v>425</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20343,7 +20350,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20352,7 +20359,7 @@
         <v>91</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>103</v>
@@ -20361,7 +20368,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>109</v>
@@ -20370,7 +20377,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20378,10 +20385,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20407,10 +20414,10 @@
         <v>341</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20461,7 +20468,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20479,7 +20486,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20496,10 +20503,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20522,19 +20529,19 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20583,7 +20590,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20601,10 +20608,10 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -20618,10 +20625,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20736,10 +20743,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20856,14 +20863,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -20885,10 +20892,10 @@
         <v>112</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>115</v>
@@ -20943,7 +20950,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20978,10 +20985,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21007,16 +21014,16 @@
         <v>386</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21065,7 +21072,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>91</v>
@@ -21083,16 +21090,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21100,10 +21107,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21126,19 +21133,19 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21187,7 +21194,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21205,16 +21212,16 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21222,14 +21229,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21248,16 +21255,16 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -21307,7 +21314,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21325,7 +21332,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21334,7 +21341,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21342,10 +21349,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21368,19 +21375,19 @@
         <v>92</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>82</v>
@@ -21429,7 +21436,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21447,10 +21454,10 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -21464,10 +21471,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21490,19 +21497,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21551,7 +21558,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21569,7 +21576,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>109</v>
@@ -21586,10 +21593,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21704,10 +21711,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21824,14 +21831,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21853,10 +21860,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21911,7 +21918,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21946,10 +21953,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21972,16 +21979,16 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22031,7 +22038,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22058,7 +22065,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22066,10 +22073,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22095,10 +22102,10 @@
         <v>171</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22128,28 +22135,28 @@
         <v>261</v>
       </c>
       <c r="Y160" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF160" t="s" s="2">
         <v>819</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>91</v>
@@ -22167,7 +22174,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6437" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6437" uniqueCount="823">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -521,7 +521,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -564,7 +564,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -640,7 +640,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.1.0}
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.1.0}
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.1.0}
 </t>
   </si>
   <si>
@@ -692,7 +692,7 @@
     <t>birthdateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.1.0}
 </t>
   </si>
   <si>
@@ -705,7 +705,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthPlace}
+    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
 </t>
   </si>
   <si>
@@ -754,7 +754,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.1.0}
 </t>
   </si>
   <si>
@@ -1203,7 +1203,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1284,7 +1284,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Patient.identifier:NSS.system</t>
@@ -1581,9 +1581,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1594,10 +1591,6 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1634,7 +1627,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1887,7 +1880,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.1.0}
 </t>
   </si>
   <si>
@@ -1933,7 +1926,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1974,7 +1967,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS|2.1.0</t>
   </si>
   <si>
     <t>sexe</t>
@@ -2041,7 +2034,7 @@
     <t>tddui-birth-order</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-birth-order}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-birth-order|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -2109,7 +2102,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.1.0</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2212,7 +2205,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.1.0}
 </t>
   </si>
   <si>
@@ -2228,7 +2221,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.1.0}
 </t>
   </si>
   <si>
@@ -2270,7 +2263,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -2292,7 +2285,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.relationship:RelationType</t>
@@ -2304,13 +2297,13 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0}
 </t>
   </si>
   <si>
@@ -2500,7 +2493,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2524,7 +2517,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -2575,7 +2568,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2927,7 +2920,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2942,7 +2935,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.4921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
@@ -14925,7 +14918,7 @@
         <v>426</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>496</v>
+        <v>427</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14978,7 +14971,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>385</v>
@@ -15100,7 +15093,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>394</v>
@@ -15220,7 +15213,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>402</v>
@@ -15338,7 +15331,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>408</v>
@@ -15364,7 +15357,7 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>501</v>
+        <v>409</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>410</v>
@@ -15458,10 +15451,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15484,26 +15477,26 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="P105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q105" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="O105" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q105" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="R105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15547,7 +15540,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15565,13 +15558,13 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15582,10 +15575,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15608,19 +15601,19 @@
         <v>92</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15657,7 +15650,7 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
@@ -15667,7 +15660,7 @@
         <v>118</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15685,16 +15678,16 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO106" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15702,13 +15695,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15730,19 +15723,19 @@
         <v>92</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15791,7 +15784,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15809,16 +15802,16 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO107" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15826,10 +15819,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15944,10 +15937,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16064,10 +16057,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16093,16 +16086,16 @@
         <v>171</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -16130,28 +16123,28 @@
         <v>261</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF110" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -16178,7 +16171,7 @@
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>82</v>
@@ -16186,10 +16179,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16215,13 +16208,13 @@
         <v>105</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>282</v>
@@ -16273,7 +16266,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16300,7 +16293,7 @@
         <v>82</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>82</v>
@@ -16308,14 +16301,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -16337,13 +16330,13 @@
         <v>105</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -16393,7 +16386,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16408,19 +16401,19 @@
         <v>103</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO112" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>82</v>
@@ -16428,14 +16421,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16457,13 +16450,13 @@
         <v>105</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16513,7 +16506,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16528,19 +16521,19 @@
         <v>103</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO113" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16548,10 +16541,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16577,10 +16570,10 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16631,7 +16624,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16649,7 +16642,7 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>82</v>
@@ -16658,7 +16651,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16666,10 +16659,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16695,10 +16688,10 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16749,7 +16742,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16767,7 +16760,7 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16776,7 +16769,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16784,10 +16777,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16813,14 +16806,14 @@
         <v>341</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16869,7 +16862,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16896,7 +16889,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16904,13 +16897,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>82</v>
@@ -16932,19 +16925,19 @@
         <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16993,7 +16986,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17011,16 +17004,16 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO117" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17028,10 +17021,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17146,10 +17139,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17266,13 +17259,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>82</v>
@@ -17294,13 +17287,13 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -17366,7 +17359,7 @@
         <v>120</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>82</v>
@@ -17386,10 +17379,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17415,16 +17408,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17452,28 +17445,28 @@
         <v>261</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF121" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17500,7 +17493,7 @@
         <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17508,10 +17501,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17537,13 +17530,13 @@
         <v>105</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>282</v>
@@ -17595,7 +17588,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17622,7 +17615,7 @@
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>82</v>
@@ -17630,14 +17623,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17659,13 +17652,13 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N123" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17715,7 +17708,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17730,10 +17723,10 @@
         <v>103</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>82</v>
@@ -17742,7 +17735,7 @@
         <v>82</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AP123" t="s" s="2">
         <v>82</v>
@@ -17750,14 +17743,14 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -17779,13 +17772,13 @@
         <v>105</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -17835,7 +17828,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17850,10 +17843,10 @@
         <v>103</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>82</v>
@@ -17862,7 +17855,7 @@
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AP124" t="s" s="2">
         <v>82</v>
@@ -17870,10 +17863,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17899,10 +17892,10 @@
         <v>105</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17953,7 +17946,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17968,10 +17961,10 @@
         <v>103</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>82</v>
@@ -17980,7 +17973,7 @@
         <v>82</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AP125" t="s" s="2">
         <v>82</v>
@@ -17988,10 +17981,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18017,10 +18010,10 @@
         <v>105</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18071,7 +18064,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18089,7 +18082,7 @@
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>82</v>
@@ -18098,7 +18091,7 @@
         <v>82</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>82</v>
@@ -18106,10 +18099,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18135,14 +18128,14 @@
         <v>341</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18191,7 +18184,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18218,7 +18211,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18226,10 +18219,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18252,19 +18245,19 @@
         <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="O128" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18313,7 +18306,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18325,22 +18318,22 @@
         <v>204</v>
       </c>
       <c r="AJ128" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO128" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="AP128" t="s" s="2">
         <v>82</v>
@@ -18348,10 +18341,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18377,16 +18370,16 @@
         <v>171</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="N129" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18415,7 +18408,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18433,7 +18426,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18448,19 +18441,19 @@
         <v>103</v>
       </c>
       <c r="AK129" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM129" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="AL129" t="s" s="2">
+      <c r="AN129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO129" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18468,10 +18461,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18494,19 +18487,19 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18555,7 +18548,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18570,30 +18563,30 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="AL130" t="s" s="2">
+      <c r="AN130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO130" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="AM130" t="s" s="2">
+      <c r="AP130" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AP130" t="s" s="2">
-        <v>638</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18619,10 +18612,10 @@
         <v>105</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18708,10 +18701,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18824,13 +18817,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B133" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C133" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>82</v>
@@ -18852,13 +18845,13 @@
         <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -18924,7 +18917,7 @@
         <v>120</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>82</v>
@@ -18944,10 +18937,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18970,13 +18963,13 @@
         <v>82</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -19027,7 +19020,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19062,10 +19055,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19088,19 +19081,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19149,7 +19142,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19167,7 +19160,7 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>109</v>
@@ -19176,7 +19169,7 @@
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19184,10 +19177,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19222,7 +19215,7 @@
         <v>240</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -19271,7 +19264,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19306,10 +19299,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19335,14 +19328,14 @@
         <v>377</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -19371,7 +19364,7 @@
       </c>
       <c r="Y137" s="2"/>
       <c r="Z137" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>82</v>
@@ -19389,7 +19382,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19407,16 +19400,16 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO137" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="AP137" t="s" s="2">
         <v>82</v>
@@ -19424,10 +19417,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19450,19 +19443,19 @@
         <v>82</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="L138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19511,7 +19504,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19529,7 +19522,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19538,7 +19531,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19546,10 +19539,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19572,19 +19565,19 @@
         <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19633,7 +19626,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19651,7 +19644,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19660,7 +19653,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19668,10 +19661,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19694,19 +19687,19 @@
         <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19755,7 +19748,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19767,13 +19760,13 @@
         <v>82</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19790,10 +19783,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19908,10 +19901,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20024,13 +20017,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B143" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="C143" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="C143" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
@@ -20052,13 +20045,13 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20144,13 +20137,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>82</v>
@@ -20172,13 +20165,13 @@
         <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -20264,14 +20257,14 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
@@ -20293,10 +20286,10 @@
         <v>112</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>115</v>
@@ -20351,7 +20344,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20386,10 +20379,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20415,14 +20408,14 @@
         <v>377</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -20450,16 +20443,16 @@
         <v>153</v>
       </c>
       <c r="Y146" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB146" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AC146" s="2"/>
       <c r="AD146" t="s" s="2">
@@ -20469,7 +20462,7 @@
         <v>118</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20487,7 +20480,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20496,7 +20489,7 @@
         <v>82</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>82</v>
@@ -20504,13 +20497,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>82</v>
@@ -20535,14 +20528,14 @@
         <v>377</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20571,7 +20564,7 @@
       </c>
       <c r="Y147" s="2"/>
       <c r="Z147" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>82</v>
@@ -20589,7 +20582,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20607,7 +20600,7 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>109</v>
@@ -20616,7 +20609,7 @@
         <v>82</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20624,13 +20617,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20655,14 +20648,14 @@
         <v>377</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>82</v>
@@ -20691,7 +20684,7 @@
       </c>
       <c r="Y148" s="2"/>
       <c r="Z148" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>82</v>
@@ -20709,7 +20702,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20727,7 +20720,7 @@
         <v>82</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>109</v>
@@ -20736,7 +20729,7 @@
         <v>82</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>82</v>
@@ -20744,10 +20737,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20770,19 +20763,19 @@
         <v>82</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="L149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20831,7 +20824,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20849,7 +20842,7 @@
         <v>82</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>82</v>
@@ -20858,7 +20851,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -20866,10 +20859,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20892,19 +20885,19 @@
         <v>82</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L150" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="O150" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20953,7 +20946,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20965,22 +20958,22 @@
         <v>204</v>
       </c>
       <c r="AJ150" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO150" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO150" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -20988,10 +20981,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21014,17 +21007,17 @@
         <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21073,7 +21066,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21091,7 +21084,7 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>109</v>
@@ -21100,7 +21093,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21108,10 +21101,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21137,14 +21130,14 @@
         <v>171</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21172,10 +21165,10 @@
         <v>261</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>82</v>
@@ -21193,7 +21186,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21211,7 +21204,7 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>109</v>
@@ -21220,7 +21213,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21228,10 +21221,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21257,14 +21250,14 @@
         <v>409</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -21313,7 +21306,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21322,7 +21315,7 @@
         <v>91</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>103</v>
@@ -21331,7 +21324,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21340,7 +21333,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21348,10 +21341,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21377,10 +21370,10 @@
         <v>341</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21431,7 +21424,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21449,7 +21442,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>109</v>
@@ -21466,10 +21459,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21492,19 +21485,19 @@
         <v>82</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21553,7 +21546,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21571,10 +21564,10 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
@@ -21588,10 +21581,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21706,10 +21699,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21826,14 +21819,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21855,10 +21848,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21913,7 +21906,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21948,10 +21941,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21977,16 +21970,16 @@
         <v>377</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="O159" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22035,7 +22028,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22053,16 +22046,16 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="AN159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO159" t="s" s="2">
         <v>779</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO159" t="s" s="2">
-        <v>781</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22070,10 +22063,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22096,19 +22089,19 @@
         <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="O160" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>786</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22157,7 +22150,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22175,16 +22168,16 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="AN160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO160" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO160" t="s" s="2">
-        <v>789</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>82</v>
@@ -22192,14 +22185,14 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
@@ -22218,16 +22211,16 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -22277,7 +22270,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22295,7 +22288,7 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>109</v>
@@ -22304,7 +22297,7 @@
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22312,10 +22305,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22338,19 +22331,19 @@
         <v>92</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22399,7 +22392,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22417,10 +22410,10 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
@@ -22434,10 +22427,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22460,19 +22453,19 @@
         <v>92</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="N163" t="s" s="2">
         <v>806</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>807</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>809</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22521,7 +22514,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22539,7 +22532,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22556,10 +22549,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22674,10 +22667,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22794,14 +22787,14 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
@@ -22823,10 +22816,10 @@
         <v>112</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N166" t="s" s="2">
         <v>115</v>
@@ -22881,7 +22874,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22916,10 +22909,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22942,16 +22935,16 @@
         <v>92</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>818</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
@@ -23001,7 +22994,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>91</v>
@@ -23028,7 +23021,7 @@
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -23036,10 +23029,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23065,10 +23058,10 @@
         <v>171</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23098,10 +23091,10 @@
         <v>261</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>82</v>
@@ -23119,7 +23112,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>91</v>
@@ -23137,7 +23130,7 @@
         <v>82</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6437" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6437" uniqueCount="825">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(StructureDefinition)
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -521,7 +521,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -564,7 +564,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -640,7 +640,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality}
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability}
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place}
 </t>
   </si>
   <si>
@@ -692,7 +692,7 @@
     <t>birthdateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator}
 </t>
   </si>
   <si>
@@ -705,7 +705,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
+    <t xml:space="preserve">Extension {patient-birthPlace}
 </t>
   </si>
   <si>
@@ -754,7 +754,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
 </t>
   </si>
   <si>
@@ -1203,7 +1203,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs|2.2.0-ballot</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1284,7 +1284,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Patient.identifier:NSS.system</t>
@@ -1581,6 +1581,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1591,6 +1594,10 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1627,7 +1634,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
 </t>
   </si>
   <si>
@@ -1880,7 +1887,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name}
 </t>
   </si>
   <si>
@@ -1926,7 +1933,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
 </t>
   </si>
   <si>
@@ -1967,7 +1974,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS</t>
   </si>
   <si>
     <t>sexe</t>
@@ -2034,7 +2041,7 @@
     <t>tddui-birth-order</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-birth-order|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-birth-order}
 </t>
   </si>
   <si>
@@ -2102,7 +2109,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2205,7 +2212,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier}
 </t>
   </si>
   <si>
@@ -2221,7 +2228,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment}
 </t>
   </si>
   <si>
@@ -2263,7 +2270,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -2285,7 +2292,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
   </si>
   <si>
     <t>Patient.contact.relationship:RelationType</t>
@@ -2297,13 +2304,13 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
 </t>
   </si>
   <si>
@@ -2493,7 +2500,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
 </t>
   </si>
   <si>
@@ -2517,7 +2524,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
 </t>
   </si>
   <si>
@@ -2568,7 +2575,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -2920,7 +2927,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="137.58984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2935,7 +2942,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.4921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
@@ -14918,7 +14925,7 @@
         <v>426</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>427</v>
+        <v>496</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14971,7 +14978,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>385</v>
@@ -15093,7 +15100,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>394</v>
@@ -15213,7 +15220,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>402</v>
@@ -15331,7 +15338,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>408</v>
@@ -15357,7 +15364,7 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>409</v>
+        <v>501</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>410</v>
@@ -15451,10 +15458,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15477,70 +15484,70 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q105" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF105" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q105" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15558,13 +15565,13 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15575,10 +15582,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15601,19 +15608,19 @@
         <v>92</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15650,7 +15657,7 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
@@ -15660,7 +15667,7 @@
         <v>118</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15678,16 +15685,16 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15695,13 +15702,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15723,19 +15730,19 @@
         <v>92</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15784,7 +15791,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15802,16 +15809,16 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15819,10 +15826,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15937,10 +15944,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16057,10 +16064,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16086,16 +16093,16 @@
         <v>171</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -16123,10 +16130,10 @@
         <v>261</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -16144,7 +16151,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -16171,7 +16178,7 @@
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>82</v>
@@ -16179,10 +16186,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16208,13 +16215,13 @@
         <v>105</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>282</v>
@@ -16266,7 +16273,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16293,7 +16300,7 @@
         <v>82</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>82</v>
@@ -16301,14 +16308,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -16330,13 +16337,13 @@
         <v>105</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -16386,7 +16393,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16401,10 +16408,10 @@
         <v>103</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>82</v>
@@ -16413,7 +16420,7 @@
         <v>82</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>82</v>
@@ -16421,14 +16428,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16450,13 +16457,13 @@
         <v>105</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16506,7 +16513,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16521,10 +16528,10 @@
         <v>103</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>82</v>
@@ -16533,7 +16540,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16541,10 +16548,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16570,10 +16577,10 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16624,7 +16631,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16642,7 +16649,7 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>82</v>
@@ -16651,7 +16658,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16659,10 +16666,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16688,10 +16695,10 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16742,7 +16749,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16760,7 +16767,7 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16769,7 +16776,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16777,10 +16784,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16806,14 +16813,14 @@
         <v>341</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16862,7 +16869,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16889,7 +16896,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16897,13 +16904,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>82</v>
@@ -16925,19 +16932,19 @@
         <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16986,7 +16993,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17004,16 +17011,16 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17021,10 +17028,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17139,10 +17146,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17259,13 +17266,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>82</v>
@@ -17287,13 +17294,13 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -17359,7 +17366,7 @@
         <v>120</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>82</v>
@@ -17379,10 +17386,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17408,16 +17415,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17445,10 +17452,10 @@
         <v>261</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -17466,7 +17473,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17493,7 +17500,7 @@
         <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17501,10 +17508,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17530,13 +17537,13 @@
         <v>105</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>282</v>
@@ -17588,7 +17595,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17615,7 +17622,7 @@
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>82</v>
@@ -17623,14 +17630,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17652,13 +17659,13 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17708,7 +17715,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17723,10 +17730,10 @@
         <v>103</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>82</v>
@@ -17735,7 +17742,7 @@
         <v>82</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AP123" t="s" s="2">
         <v>82</v>
@@ -17743,14 +17750,14 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -17772,13 +17779,13 @@
         <v>105</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -17828,7 +17835,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17843,10 +17850,10 @@
         <v>103</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>82</v>
@@ -17855,7 +17862,7 @@
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AP124" t="s" s="2">
         <v>82</v>
@@ -17863,10 +17870,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17892,10 +17899,10 @@
         <v>105</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17946,7 +17953,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17961,10 +17968,10 @@
         <v>103</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>82</v>
@@ -17973,7 +17980,7 @@
         <v>82</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AP125" t="s" s="2">
         <v>82</v>
@@ -17981,10 +17988,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18010,10 +18017,10 @@
         <v>105</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18064,7 +18071,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18082,7 +18089,7 @@
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>82</v>
@@ -18091,7 +18098,7 @@
         <v>82</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>82</v>
@@ -18099,10 +18106,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18128,14 +18135,14 @@
         <v>341</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18184,7 +18191,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18211,7 +18218,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18219,10 +18226,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18245,19 +18252,19 @@
         <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18306,7 +18313,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18318,13 +18325,13 @@
         <v>204</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>82</v>
@@ -18333,7 +18340,7 @@
         <v>82</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AP128" t="s" s="2">
         <v>82</v>
@@ -18341,10 +18348,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18370,16 +18377,16 @@
         <v>171</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18408,7 +18415,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18426,7 +18433,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18441,19 +18448,19 @@
         <v>103</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18461,10 +18468,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18487,19 +18494,19 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18548,7 +18555,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18563,30 +18570,30 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AP130" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18612,10 +18619,10 @@
         <v>105</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18701,10 +18708,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18817,13 +18824,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>82</v>
@@ -18845,13 +18852,13 @@
         <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -18917,7 +18924,7 @@
         <v>120</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>82</v>
@@ -18937,10 +18944,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18963,13 +18970,13 @@
         <v>82</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -19020,7 +19027,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19055,10 +19062,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19081,19 +19088,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19142,7 +19149,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19160,7 +19167,7 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>109</v>
@@ -19169,7 +19176,7 @@
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19177,10 +19184,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19215,7 +19222,7 @@
         <v>240</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -19264,7 +19271,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19299,10 +19306,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19328,14 +19335,14 @@
         <v>377</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -19364,7 +19371,7 @@
       </c>
       <c r="Y137" s="2"/>
       <c r="Z137" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>82</v>
@@ -19382,7 +19389,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19400,16 +19407,16 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AP137" t="s" s="2">
         <v>82</v>
@@ -19417,10 +19424,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19443,19 +19450,19 @@
         <v>82</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19504,7 +19511,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19522,7 +19529,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19531,7 +19538,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19539,10 +19546,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19565,19 +19572,19 @@
         <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19626,7 +19633,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19644,7 +19651,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19653,7 +19660,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19661,10 +19668,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19687,19 +19694,19 @@
         <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19748,7 +19755,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19760,13 +19767,13 @@
         <v>82</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19783,10 +19790,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19901,10 +19908,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20017,13 +20024,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
@@ -20045,13 +20052,13 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20137,13 +20144,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>82</v>
@@ -20165,13 +20172,13 @@
         <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -20257,14 +20264,14 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
@@ -20286,10 +20293,10 @@
         <v>112</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>115</v>
@@ -20344,7 +20351,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20379,10 +20386,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20408,14 +20415,14 @@
         <v>377</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -20443,16 +20450,16 @@
         <v>153</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB146" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AC146" s="2"/>
       <c r="AD146" t="s" s="2">
@@ -20462,7 +20469,7 @@
         <v>118</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20480,7 +20487,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20489,7 +20496,7 @@
         <v>82</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>82</v>
@@ -20497,13 +20504,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>82</v>
@@ -20528,14 +20535,14 @@
         <v>377</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20564,7 +20571,7 @@
       </c>
       <c r="Y147" s="2"/>
       <c r="Z147" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>82</v>
@@ -20582,7 +20589,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20600,7 +20607,7 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>109</v>
@@ -20609,7 +20616,7 @@
         <v>82</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20617,13 +20624,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20648,14 +20655,14 @@
         <v>377</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>82</v>
@@ -20684,7 +20691,7 @@
       </c>
       <c r="Y148" s="2"/>
       <c r="Z148" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>82</v>
@@ -20702,7 +20709,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20720,7 +20727,7 @@
         <v>82</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>109</v>
@@ -20729,7 +20736,7 @@
         <v>82</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>82</v>
@@ -20737,10 +20744,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20763,19 +20770,19 @@
         <v>82</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20824,7 +20831,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20842,7 +20849,7 @@
         <v>82</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>82</v>
@@ -20851,7 +20858,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -20859,10 +20866,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20885,19 +20892,19 @@
         <v>82</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20946,7 +20953,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20958,13 +20965,13 @@
         <v>204</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>82</v>
@@ -20973,7 +20980,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -20981,10 +20988,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21007,17 +21014,17 @@
         <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21066,7 +21073,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21084,7 +21091,7 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>109</v>
@@ -21093,7 +21100,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21101,10 +21108,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21130,14 +21137,14 @@
         <v>171</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21165,10 +21172,10 @@
         <v>261</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>82</v>
@@ -21186,7 +21193,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21204,7 +21211,7 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>109</v>
@@ -21213,7 +21220,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21221,10 +21228,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21250,14 +21257,14 @@
         <v>409</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -21306,7 +21313,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21315,7 +21322,7 @@
         <v>91</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>103</v>
@@ -21324,7 +21331,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21333,7 +21340,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21341,10 +21348,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21370,10 +21377,10 @@
         <v>341</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21424,7 +21431,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21442,7 +21449,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>109</v>
@@ -21459,10 +21466,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21485,19 +21492,19 @@
         <v>82</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21546,7 +21553,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21564,10 +21571,10 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
@@ -21581,10 +21588,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21699,10 +21706,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21819,14 +21826,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21848,10 +21855,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21906,7 +21913,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21941,10 +21948,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21970,16 +21977,16 @@
         <v>377</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22028,7 +22035,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22046,16 +22053,16 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22063,10 +22070,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22089,19 +22096,19 @@
         <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22150,7 +22157,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22168,16 +22175,16 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>82</v>
@@ -22185,14 +22192,14 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
@@ -22211,16 +22218,16 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -22270,7 +22277,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22288,7 +22295,7 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>109</v>
@@ -22297,7 +22304,7 @@
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22305,10 +22312,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22331,19 +22338,19 @@
         <v>92</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22392,7 +22399,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22410,10 +22417,10 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
@@ -22427,10 +22434,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22453,19 +22460,19 @@
         <v>92</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22514,7 +22521,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22532,7 +22539,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22549,10 +22556,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22667,10 +22674,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22787,14 +22794,14 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
@@ -22816,10 +22823,10 @@
         <v>112</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="N166" t="s" s="2">
         <v>115</v>
@@ -22874,7 +22881,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22909,10 +22916,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22935,16 +22942,16 @@
         <v>92</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
@@ -22994,7 +23001,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>91</v>
@@ -23021,7 +23028,7 @@
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -23029,10 +23036,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23058,10 +23065,10 @@
         <v>171</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23091,28 +23098,28 @@
         <v>261</v>
       </c>
       <c r="Y168" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF168" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>818</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>91</v>
@@ -23130,7 +23137,7 @@
         <v>82</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6437" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6437" uniqueCount="823">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -497,7 +497,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -521,7 +521,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -564,7 +564,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -640,7 +640,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.1.0}
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.1.0}
 </t>
   </si>
   <si>
@@ -676,7 +676,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.1.0}
 </t>
   </si>
   <si>
@@ -692,7 +692,7 @@
     <t>birthdateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.1.0}
 </t>
   </si>
   <si>
@@ -705,7 +705,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthPlace}
+    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
 </t>
   </si>
   <si>
@@ -754,7 +754,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.1.0}
 </t>
   </si>
   <si>
@@ -1203,7 +1203,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1284,7 +1284,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Patient.identifier:NSS.system</t>
@@ -1581,9 +1581,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1594,10 +1591,6 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1634,7 +1627,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1887,7 +1880,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.1.0}
 </t>
   </si>
   <si>
@@ -1933,7 +1926,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1974,7 +1967,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS|2.1.0</t>
   </si>
   <si>
     <t>sexe</t>
@@ -2041,7 +2034,7 @@
     <t>tddui-birth-order</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-birth-order}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-birth-order|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -2109,7 +2102,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.1.0</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2212,7 +2205,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.1.0}
 </t>
   </si>
   <si>
@@ -2228,7 +2221,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.1.0}
 </t>
   </si>
   <si>
@@ -2270,7 +2263,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -2292,7 +2285,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.relationship:RelationType</t>
@@ -2304,13 +2297,13 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0}
 </t>
   </si>
   <si>
@@ -2500,7 +2493,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2524,7 +2517,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -2575,7 +2568,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2927,7 +2920,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2942,7 +2935,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.4921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
@@ -14925,7 +14918,7 @@
         <v>426</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>496</v>
+        <v>427</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14978,7 +14971,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>385</v>
@@ -15100,7 +15093,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>394</v>
@@ -15220,7 +15213,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>402</v>
@@ -15338,7 +15331,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>408</v>
@@ -15364,7 +15357,7 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>501</v>
+        <v>409</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>410</v>
@@ -15458,10 +15451,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15484,26 +15477,26 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="P105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q105" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="O105" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q105" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="R105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15547,7 +15540,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15565,13 +15558,13 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15582,10 +15575,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15608,19 +15601,19 @@
         <v>92</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15657,7 +15650,7 @@
         <v>82</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
@@ -15667,7 +15660,7 @@
         <v>118</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15685,16 +15678,16 @@
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO106" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15702,13 +15695,13 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>82</v>
@@ -15730,19 +15723,19 @@
         <v>92</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>82</v>
@@ -15791,7 +15784,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15809,16 +15802,16 @@
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO107" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AP107" t="s" s="2">
         <v>82</v>
@@ -15826,10 +15819,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15944,10 +15937,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16064,10 +16057,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16093,16 +16086,16 @@
         <v>171</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N110" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -16130,28 +16123,28 @@
         <v>261</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF110" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -16178,7 +16171,7 @@
         <v>82</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>82</v>
@@ -16186,10 +16179,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16215,13 +16208,13 @@
         <v>105</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N111" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>282</v>
@@ -16273,7 +16266,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -16300,7 +16293,7 @@
         <v>82</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AP111" t="s" s="2">
         <v>82</v>
@@ -16308,14 +16301,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -16337,13 +16330,13 @@
         <v>105</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -16393,7 +16386,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16408,19 +16401,19 @@
         <v>103</v>
       </c>
       <c r="AK112" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO112" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>82</v>
@@ -16428,14 +16421,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16457,13 +16450,13 @@
         <v>105</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N113" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16513,7 +16506,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16528,19 +16521,19 @@
         <v>103</v>
       </c>
       <c r="AK113" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO113" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16548,10 +16541,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16577,10 +16570,10 @@
         <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16631,7 +16624,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16649,7 +16642,7 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>82</v>
@@ -16658,7 +16651,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16666,10 +16659,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16695,10 +16688,10 @@
         <v>105</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16749,7 +16742,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16767,7 +16760,7 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -16776,7 +16769,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -16784,10 +16777,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16813,14 +16806,14 @@
         <v>341</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16869,7 +16862,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16896,7 +16889,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -16904,13 +16897,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>82</v>
@@ -16932,19 +16925,19 @@
         <v>92</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16993,7 +16986,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17011,16 +17004,16 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO117" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17028,10 +17021,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17146,10 +17139,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17266,13 +17259,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>82</v>
@@ -17294,13 +17287,13 @@
         <v>82</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -17366,7 +17359,7 @@
         <v>120</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>82</v>
@@ -17386,10 +17379,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17415,16 +17408,16 @@
         <v>171</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -17452,28 +17445,28 @@
         <v>261</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF121" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -17500,7 +17493,7 @@
         <v>82</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AP121" t="s" s="2">
         <v>82</v>
@@ -17508,10 +17501,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17537,13 +17530,13 @@
         <v>105</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>282</v>
@@ -17595,7 +17588,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17622,7 +17615,7 @@
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>82</v>
@@ -17630,14 +17623,14 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
@@ -17659,13 +17652,13 @@
         <v>105</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N123" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -17715,7 +17708,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17730,10 +17723,10 @@
         <v>103</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>82</v>
@@ -17742,7 +17735,7 @@
         <v>82</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AP123" t="s" s="2">
         <v>82</v>
@@ -17750,14 +17743,14 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
@@ -17779,13 +17772,13 @@
         <v>105</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N124" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -17835,7 +17828,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -17850,10 +17843,10 @@
         <v>103</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>82</v>
@@ -17862,7 +17855,7 @@
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AP124" t="s" s="2">
         <v>82</v>
@@ -17870,10 +17863,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17899,10 +17892,10 @@
         <v>105</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -17953,7 +17946,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -17968,10 +17961,10 @@
         <v>103</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>82</v>
@@ -17980,7 +17973,7 @@
         <v>82</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AP125" t="s" s="2">
         <v>82</v>
@@ -17988,10 +17981,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18017,10 +18010,10 @@
         <v>105</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18071,7 +18064,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18089,7 +18082,7 @@
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>82</v>
@@ -18098,7 +18091,7 @@
         <v>82</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AP126" t="s" s="2">
         <v>82</v>
@@ -18106,10 +18099,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18135,14 +18128,14 @@
         <v>341</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18191,7 +18184,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18218,7 +18211,7 @@
         <v>82</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18226,10 +18219,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18252,19 +18245,19 @@
         <v>82</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="O128" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>82</v>
@@ -18313,7 +18306,7 @@
         <v>82</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>80</v>
@@ -18325,22 +18318,22 @@
         <v>204</v>
       </c>
       <c r="AJ128" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO128" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="AP128" t="s" s="2">
         <v>82</v>
@@ -18348,10 +18341,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18377,16 +18370,16 @@
         <v>171</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="N129" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="O129" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>82</v>
@@ -18415,7 +18408,7 @@
       </c>
       <c r="Y129" s="2"/>
       <c r="Z129" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>82</v>
@@ -18433,7 +18426,7 @@
         <v>82</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>80</v>
@@ -18448,19 +18441,19 @@
         <v>103</v>
       </c>
       <c r="AK129" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AM129" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="AL129" t="s" s="2">
+      <c r="AN129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO129" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="AP129" t="s" s="2">
         <v>82</v>
@@ -18468,10 +18461,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18494,19 +18487,19 @@
         <v>92</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>82</v>
@@ -18555,7 +18548,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>80</v>
@@ -18570,30 +18563,30 @@
         <v>103</v>
       </c>
       <c r="AK130" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AM130" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="AL130" t="s" s="2">
+      <c r="AN130" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO130" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="AM130" t="s" s="2">
+      <c r="AP130" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AP130" t="s" s="2">
-        <v>638</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18619,10 +18612,10 @@
         <v>105</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -18708,10 +18701,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18824,13 +18817,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B133" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="C133" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>82</v>
@@ -18852,13 +18845,13 @@
         <v>82</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
@@ -18924,7 +18917,7 @@
         <v>120</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>82</v>
@@ -18944,10 +18937,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18970,13 +18963,13 @@
         <v>82</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -19027,7 +19020,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19062,10 +19055,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19088,19 +19081,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19149,7 +19142,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19167,7 +19160,7 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>109</v>
@@ -19176,7 +19169,7 @@
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19184,10 +19177,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19222,7 +19215,7 @@
         <v>240</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -19271,7 +19264,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19306,10 +19299,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19335,14 +19328,14 @@
         <v>377</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>82</v>
@@ -19371,7 +19364,7 @@
       </c>
       <c r="Y137" s="2"/>
       <c r="Z137" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>82</v>
@@ -19389,7 +19382,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>80</v>
@@ -19407,16 +19400,16 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO137" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="AP137" t="s" s="2">
         <v>82</v>
@@ -19424,10 +19417,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19450,19 +19443,19 @@
         <v>82</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="L138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19511,7 +19504,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19529,7 +19522,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>109</v>
@@ -19538,7 +19531,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19546,10 +19539,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19572,19 +19565,19 @@
         <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="L139" t="s" s="2">
+      <c r="N139" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="M139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19633,7 +19626,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19651,7 +19644,7 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
@@ -19660,7 +19653,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19668,10 +19661,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19694,19 +19687,19 @@
         <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="L140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19755,7 +19748,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19767,13 +19760,13 @@
         <v>82</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>109</v>
@@ -19790,10 +19783,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19908,10 +19901,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20024,13 +20017,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B143" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="C143" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="C143" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
@@ -20052,13 +20045,13 @@
         <v>82</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20144,13 +20137,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>82</v>
@@ -20172,13 +20165,13 @@
         <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>706</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -20264,14 +20257,14 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
@@ -20293,10 +20286,10 @@
         <v>112</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N145" t="s" s="2">
         <v>115</v>
@@ -20351,7 +20344,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20386,10 +20379,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20415,14 +20408,14 @@
         <v>377</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -20450,16 +20443,16 @@
         <v>153</v>
       </c>
       <c r="Y146" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB146" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="AC146" s="2"/>
       <c r="AD146" t="s" s="2">
@@ -20469,7 +20462,7 @@
         <v>118</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20487,7 +20480,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>109</v>
@@ -20496,7 +20489,7 @@
         <v>82</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>82</v>
@@ -20504,13 +20497,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>82</v>
@@ -20535,14 +20528,14 @@
         <v>377</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>82</v>
@@ -20571,7 +20564,7 @@
       </c>
       <c r="Y147" s="2"/>
       <c r="Z147" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>82</v>
@@ -20589,7 +20582,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20607,7 +20600,7 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>109</v>
@@ -20616,7 +20609,7 @@
         <v>82</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20624,13 +20617,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20655,14 +20648,14 @@
         <v>377</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>82</v>
@@ -20691,7 +20684,7 @@
       </c>
       <c r="Y148" s="2"/>
       <c r="Z148" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>82</v>
@@ -20709,7 +20702,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20727,7 +20720,7 @@
         <v>82</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>109</v>
@@ -20736,7 +20729,7 @@
         <v>82</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>82</v>
@@ -20744,10 +20737,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20770,19 +20763,19 @@
         <v>82</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="L149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20831,7 +20824,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -20849,7 +20842,7 @@
         <v>82</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>82</v>
@@ -20858,7 +20851,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -20866,10 +20859,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20892,19 +20885,19 @@
         <v>82</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L150" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="O150" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -20953,7 +20946,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -20965,22 +20958,22 @@
         <v>204</v>
       </c>
       <c r="AJ150" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN150" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO150" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO150" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -20988,10 +20981,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21014,17 +21007,17 @@
         <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="M151" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21073,7 +21066,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21091,7 +21084,7 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>109</v>
@@ -21100,7 +21093,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21108,10 +21101,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21137,14 +21130,14 @@
         <v>171</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21172,10 +21165,10 @@
         <v>261</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>82</v>
@@ -21193,7 +21186,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21211,7 +21204,7 @@
         <v>82</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>109</v>
@@ -21220,7 +21213,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21228,10 +21221,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21257,14 +21250,14 @@
         <v>409</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -21313,7 +21306,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21322,7 +21315,7 @@
         <v>91</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>103</v>
@@ -21331,7 +21324,7 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>109</v>
@@ -21340,7 +21333,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21348,10 +21341,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21377,10 +21370,10 @@
         <v>341</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21431,7 +21424,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21449,7 +21442,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>109</v>
@@ -21466,10 +21459,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21492,19 +21485,19 @@
         <v>82</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21553,7 +21546,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21571,10 +21564,10 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
@@ -21588,10 +21581,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21706,10 +21699,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21826,14 +21819,14 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -21855,10 +21848,10 @@
         <v>112</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>115</v>
@@ -21913,7 +21906,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -21948,10 +21941,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21977,16 +21970,16 @@
         <v>377</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="O159" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22035,7 +22028,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>91</v>
@@ -22053,16 +22046,16 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="AM159" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="AN159" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO159" t="s" s="2">
         <v>779</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="AN159" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO159" t="s" s="2">
-        <v>781</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22070,10 +22063,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22096,19 +22089,19 @@
         <v>82</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="M160" t="s" s="2">
+      <c r="O160" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>786</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22157,7 +22150,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22175,16 +22168,16 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="AM160" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="AN160" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO160" t="s" s="2">
         <v>787</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="AN160" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO160" t="s" s="2">
-        <v>789</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>82</v>
@@ -22192,14 +22185,14 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
@@ -22218,16 +22211,16 @@
         <v>82</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="L161" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>792</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>793</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>795</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -22277,7 +22270,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22295,7 +22288,7 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>109</v>
@@ -22304,7 +22297,7 @@
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22312,10 +22305,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22338,19 +22331,19 @@
         <v>92</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>803</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22399,7 +22392,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22417,10 +22410,10 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>82</v>
@@ -22434,10 +22427,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22460,19 +22453,19 @@
         <v>92</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L163" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="M163" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="N163" t="s" s="2">
         <v>806</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>807</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>809</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22521,7 +22514,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22539,7 +22532,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22556,10 +22549,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22674,10 +22667,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22794,14 +22787,14 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
@@ -22823,10 +22816,10 @@
         <v>112</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N166" t="s" s="2">
         <v>115</v>
@@ -22881,7 +22874,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -22916,10 +22909,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22942,16 +22935,16 @@
         <v>92</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>818</v>
       </c>
       <c r="O167" s="2"/>
       <c r="P167" t="s" s="2">
@@ -23001,7 +22994,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>91</v>
@@ -23028,7 +23021,7 @@
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -23036,10 +23029,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23065,10 +23058,10 @@
         <v>171</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23098,10 +23091,10 @@
         <v>261</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>82</v>
@@ -23119,7 +23112,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>91</v>
@@ -23137,7 +23130,7 @@
         <v>82</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
